--- a/SceneServer/tools/Xlsx/kx_item_attr_upgrade.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_upgrade.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$4:$I$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$4:$J$253</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -45,12 +45,24 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>兼容14装备发光使用的其他装备的特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>对应字段
  kx_item:wear_pos_mask</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="87">
   <si>
     <t>idx</t>
   </si>
@@ -80,6 +92,9 @@
   </si>
   <si>
     <t>item_level</t>
+  </si>
+  <si>
+    <t>item_mode3</t>
   </si>
   <si>
     <t>wear_mask</t>
@@ -116,6 +131,9 @@
   </si>
   <si>
     <t>道具等级</t>
+  </si>
+  <si>
+    <t>物品附加字段</t>
   </si>
   <si>
     <t>穿戴位置</t>
@@ -256,6 +274,9 @@
     <t>物理技能攻击力Lv13</t>
   </si>
   <si>
+    <t>2; 4; 6; 8; 10; 12;14;20;30;50;50;50;50;50;50</t>
+  </si>
+  <si>
     <t>2; 4; 6; 8; 10; 12;14;20;30;50</t>
   </si>
   <si>
@@ -278,6 +299,48 @@
   </si>
   <si>
     <t>13级头盔</t>
+  </si>
+  <si>
+    <t>14级物理武器</t>
+  </si>
+  <si>
+    <t>2; 4; 6; 8; 10; 12;14;20;30;35;40;45;50;55</t>
+  </si>
+  <si>
+    <t>2; 4; 6; 8; 10; 12;14;20;30;45;50;55;60;65</t>
+  </si>
+  <si>
+    <t>物理技能攻击力Lv14</t>
+  </si>
+  <si>
+    <t>2; 4; 6; 8; 10; 12;14;20;30;50;55;60;65;70</t>
+  </si>
+  <si>
+    <t>14级魔法武器</t>
+  </si>
+  <si>
+    <t>魔法技能攻击力Lv14</t>
+  </si>
+  <si>
+    <t>14级防具</t>
+  </si>
+  <si>
+    <t>2; 4; 6; 8; 10; 12;14;20;30;35;40</t>
+  </si>
+  <si>
+    <t>14级盾牌</t>
+  </si>
+  <si>
+    <t>2; 4; 6; 8; 10; 12;14;20;30;35;40;45</t>
+  </si>
+  <si>
+    <t>14级护腿</t>
+  </si>
+  <si>
+    <t>14级护手</t>
+  </si>
+  <si>
+    <t>14级头盔</t>
   </si>
 </sst>
 </file>
@@ -1226,46 +1289,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I170"/>
+  <sheetPr/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" customWidth="1"/>
-    <col min="16" max="16" width="82.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="39.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="1" customWidth="1"/>
-    <col min="22" max="25" width="255.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="51.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="54.125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="15.625" style="1"/>
+    <col min="3" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" customWidth="1"/>
+    <col min="17" max="17" width="82.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="39.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="1" customWidth="1"/>
+    <col min="23" max="26" width="255.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="51.375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="54.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,4887 +1356,7590 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>64</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:9">
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>64</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:9">
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>64</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:9">
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>64</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:9">
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>64</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:9">
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>64</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>12</v>
       </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:9">
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>64</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>12</v>
       </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:9">
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>64</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>12</v>
       </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:9">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>64</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>12</v>
       </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:9">
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>64</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="H14" s="1">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:9">
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>64</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>6</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>12</v>
       </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:9">
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>256</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>6</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>12</v>
       </c>
-      <c r="H16" s="1">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:9">
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
         <v>256</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>6</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>12</v>
       </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:9">
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" s="2">
         <v>10</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>256</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>12</v>
       </c>
-      <c r="H18" s="1">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:9">
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>256</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>12</v>
       </c>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:9">
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>256</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>12</v>
       </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:9">
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>256</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>12</v>
       </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:9">
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>256</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>12</v>
       </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:9">
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>256</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>6</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>12</v>
       </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:9">
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>256</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>6</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>12</v>
       </c>
-      <c r="H24" s="1">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:9">
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>256</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>6</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>12</v>
       </c>
-      <c r="H25" s="1">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:9">
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>256</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>6</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>12</v>
       </c>
-      <c r="H26" s="1">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:9">
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>6</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>12</v>
       </c>
-      <c r="H27" s="1">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:9">
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>6</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>12</v>
       </c>
-      <c r="H28" s="1">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:9">
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>6</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>12</v>
       </c>
-      <c r="H29" s="1">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:9">
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" s="2">
         <v>10</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
         <v>4</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>6</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>12</v>
       </c>
-      <c r="H30" s="1">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:9">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
         <v>4</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>6</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>12</v>
       </c>
-      <c r="H31" s="1">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:9">
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
         <v>4</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>6</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>12</v>
       </c>
-      <c r="H32" s="1">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:9">
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>6</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>12</v>
       </c>
-      <c r="H33" s="1">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:9">
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:10">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
         <v>4</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>6</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>12</v>
       </c>
-      <c r="H34" s="1">
-        <v>10</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:9">
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2">
         <v>10</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
         <v>4</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>6</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>12</v>
       </c>
-      <c r="H35" s="1">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:9">
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
         <v>4</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>6</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>12</v>
       </c>
-      <c r="H36" s="1">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" customHeight="1" spans="1:9">
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>6</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>12</v>
       </c>
-      <c r="H37" s="1">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:9">
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
         <v>4</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>6</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>12</v>
       </c>
-      <c r="H38" s="1">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:9">
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2">
         <v>10</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
         <v>4</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>6</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>12</v>
       </c>
-      <c r="H39" s="1">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:9">
+      <c r="I39" s="1">
+        <v>10</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2">
         <v>10</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
         <v>4</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>6</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>12</v>
       </c>
-      <c r="H40" s="1">
-        <v>10</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:9">
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2">
         <v>10</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
         <v>128</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>6</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>12</v>
       </c>
-      <c r="H41" s="1">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:9">
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
         <v>128</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>6</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>12</v>
       </c>
-      <c r="H42" s="1">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:9">
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:10">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2">
         <v>10</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
         <v>128</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>6</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>12</v>
       </c>
-      <c r="H43" s="1">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:9">
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:10">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2">
         <v>10</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
         <v>128</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>6</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>12</v>
       </c>
-      <c r="H44" s="1">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:9">
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:10">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2">
         <v>10</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
         <v>128</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>6</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>12</v>
       </c>
-      <c r="H45" s="1">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:9">
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2">
         <v>10</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
         <v>128</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>6</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>12</v>
       </c>
-      <c r="H46" s="1">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:9">
+      <c r="I46" s="1">
+        <v>10</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2">
         <v>10</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
         <v>128</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>6</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>12</v>
       </c>
-      <c r="H47" s="1">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:9">
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="1">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
         <v>128</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>6</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>12</v>
       </c>
-      <c r="H48" s="1">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:9">
+      <c r="I48" s="1">
+        <v>10</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:10">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <v>10</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
         <v>128</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>12</v>
       </c>
-      <c r="H49" s="1">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:9">
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:10">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2">
         <v>10</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
         <v>128</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>6</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>12</v>
       </c>
-      <c r="H50" s="1">
-        <v>10</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:9">
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:10">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2">
         <v>10</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
         <v>128</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>6</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>12</v>
       </c>
-      <c r="H51" s="1">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:9">
+      <c r="I51" s="1">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:10">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2">
         <v>10</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
         <v>8</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>6</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>12</v>
       </c>
-      <c r="H52" s="1">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:9">
+      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:10">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="2">
         <v>10</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
         <v>8</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>6</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>12</v>
       </c>
-      <c r="H53" s="1">
-        <v>10</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:9">
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:10">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2">
         <v>10</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
         <v>8</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>6</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>12</v>
       </c>
-      <c r="H54" s="1">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:9">
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:10">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2">
         <v>10</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
         <v>8</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>6</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>12</v>
       </c>
-      <c r="H55" s="1">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:9">
+      <c r="I55" s="1">
+        <v>10</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:10">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2">
         <v>10</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
         <v>8</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>6</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>12</v>
       </c>
-      <c r="H56" s="1">
-        <v>10</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:9">
+      <c r="I56" s="1">
+        <v>10</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:10">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D57" s="2">
         <v>10</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
         <v>8</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>6</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>12</v>
       </c>
-      <c r="H57" s="1">
-        <v>10</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:9">
+      <c r="I57" s="1">
+        <v>10</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:10">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D58" s="2">
         <v>10</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
         <v>8</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>6</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>12</v>
       </c>
-      <c r="H58" s="1">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:9">
+      <c r="I58" s="1">
+        <v>10</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:10">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2">
         <v>10</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
         <v>8</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>6</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>12</v>
       </c>
-      <c r="H59" s="1">
-        <v>10</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:9">
+      <c r="I59" s="1">
+        <v>10</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:10">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D60" s="2">
         <v>10</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
         <v>8</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>6</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>12</v>
       </c>
-      <c r="H60" s="1">
-        <v>10</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:9">
+      <c r="I60" s="1">
+        <v>10</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:10">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2">
         <v>10</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
         <v>8</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>6</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>12</v>
       </c>
-      <c r="H61" s="1">
-        <v>10</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:9">
+      <c r="I61" s="1">
+        <v>10</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:10">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D62" s="2">
         <v>10</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2">
         <v>8</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>6</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>12</v>
       </c>
-      <c r="H62" s="1">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:9">
+      <c r="I62" s="1">
+        <v>10</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:10">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D63" s="2">
         <v>10</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
         <v>8</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>6</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>12</v>
       </c>
-      <c r="H63" s="1">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:9">
+      <c r="I63" s="1">
+        <v>10</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:10">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D64" s="2">
         <v>10</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
         <v>16</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>6</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>12</v>
       </c>
-      <c r="H64" s="1">
-        <v>10</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:9">
+      <c r="I64" s="1">
+        <v>10</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:10">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D65" s="2">
         <v>10</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
         <v>16</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>6</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>12</v>
       </c>
-      <c r="H65" s="1">
-        <v>10</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:9">
+      <c r="I65" s="1">
+        <v>10</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:10">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D66" s="2">
         <v>10</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
         <v>16</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>6</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>12</v>
       </c>
-      <c r="H66" s="1">
-        <v>10</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:9">
+      <c r="I66" s="1">
+        <v>10</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:10">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D67" s="2">
         <v>10</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
         <v>16</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>6</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>12</v>
       </c>
-      <c r="H67" s="1">
-        <v>10</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:9">
+      <c r="I67" s="1">
+        <v>10</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:10">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D68" s="2">
         <v>10</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
         <v>16</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>6</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>12</v>
       </c>
-      <c r="H68" s="1">
-        <v>10</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:9">
+      <c r="I68" s="1">
+        <v>10</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:10">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D69" s="2">
         <v>10</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
         <v>16</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>6</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>12</v>
       </c>
-      <c r="H69" s="1">
-        <v>10</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:9">
+      <c r="I69" s="1">
+        <v>10</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:10">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D70" s="2">
         <v>10</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
         <v>16</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>6</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>12</v>
       </c>
-      <c r="H70" s="1">
-        <v>10</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:9">
+      <c r="I70" s="1">
+        <v>10</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:10">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D71" s="2">
         <v>10</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2">
         <v>16</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>6</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>12</v>
       </c>
-      <c r="H71" s="1">
-        <v>10</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:9">
+      <c r="I71" s="1">
+        <v>10</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:10">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D72" s="2">
         <v>10</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2">
         <v>16</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>6</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>12</v>
       </c>
-      <c r="H72" s="1">
-        <v>10</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:9">
+      <c r="I72" s="1">
+        <v>10</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:10">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D73" s="2">
         <v>10</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2">
         <v>16</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>6</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>12</v>
       </c>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:9">
+      <c r="I73" s="1">
+        <v>10</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D74" s="2">
         <v>10</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
         <v>16</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>6</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>12</v>
       </c>
-      <c r="H74" s="1">
-        <v>10</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:9">
+      <c r="I74" s="1">
+        <v>10</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D75" s="2">
         <v>10</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
         <v>16</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>6</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>12</v>
       </c>
-      <c r="H75" s="1">
-        <v>10</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:9">
+      <c r="I75" s="1">
+        <v>10</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:10">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D76" s="2">
         <v>10</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
         <v>2</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>6</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>12</v>
       </c>
-      <c r="H76" s="1">
-        <v>10</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" hidden="1" spans="1:9">
+      <c r="I76" s="1">
+        <v>10</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:10">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D77" s="2">
         <v>10</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2">
         <v>2</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>6</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>12</v>
       </c>
-      <c r="H77" s="1">
-        <v>10</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:9">
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:10">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D78" s="2">
         <v>10</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
         <v>2</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>6</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>12</v>
       </c>
-      <c r="H78" s="1">
-        <v>10</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:9">
+      <c r="I78" s="1">
+        <v>10</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D79" s="2">
         <v>10</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2">
         <v>2</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>6</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>12</v>
       </c>
-      <c r="H79" s="1">
-        <v>10</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:9">
+      <c r="I79" s="1">
+        <v>10</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:10">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D80" s="2">
         <v>10</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2">
         <v>2</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>6</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>12</v>
       </c>
-      <c r="H80" s="1">
-        <v>10</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:9">
+      <c r="I80" s="1">
+        <v>10</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:10">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2">
         <v>10</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2">
         <v>2</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>6</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>12</v>
       </c>
-      <c r="H81" s="1">
-        <v>10</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:9">
+      <c r="I81" s="1">
+        <v>10</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:10">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D82" s="2">
         <v>10</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2">
         <v>2</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>6</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>12</v>
       </c>
-      <c r="H82" s="1">
-        <v>10</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:9">
+      <c r="I82" s="1">
+        <v>10</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:10">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D83" s="2">
         <v>10</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2">
         <v>2</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <v>6</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>12</v>
       </c>
-      <c r="H83" s="1">
-        <v>10</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:9">
+      <c r="I83" s="1">
+        <v>10</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:10">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2">
         <v>10</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2">
         <v>2</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <v>6</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>12</v>
       </c>
-      <c r="H84" s="1">
-        <v>10</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:9">
+      <c r="I84" s="1">
+        <v>10</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:10">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D85" s="2">
         <v>10</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2">
         <v>2</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>6</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>12</v>
       </c>
-      <c r="H85" s="1">
-        <v>10</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:9">
+      <c r="I85" s="1">
+        <v>10</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:10">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D86" s="2">
         <v>10</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2">
         <v>2</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>6</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>12</v>
       </c>
-      <c r="H86" s="1">
-        <v>10</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:9">
+      <c r="I86" s="1">
+        <v>10</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:10">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D87" s="2">
         <v>10</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>6</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>12</v>
       </c>
-      <c r="H87" s="1">
-        <v>10</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:9">
+      <c r="I87" s="1">
+        <v>10</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:10">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D88" s="2">
         <v>17</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2">
         <v>64</v>
       </c>
-      <c r="F88" s="1">
-        <v>10</v>
-      </c>
       <c r="G88" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1">
         <v>20</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:9">
+      <c r="I88" s="1">
+        <v>20</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:10">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D89" s="2">
         <v>17</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
         <v>64</v>
       </c>
-      <c r="F89" s="1">
-        <v>10</v>
-      </c>
       <c r="G89" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H89" s="1">
         <v>20</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:9">
+      <c r="I89" s="1">
+        <v>20</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:10">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D90" s="2">
         <v>17</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2">
         <v>64</v>
       </c>
-      <c r="F90" s="1">
-        <v>10</v>
-      </c>
       <c r="G90" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H90" s="1">
         <v>20</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:9">
+      <c r="I90" s="1">
+        <v>20</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:10">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2">
         <v>17</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
         <v>64</v>
       </c>
-      <c r="F91" s="1">
-        <v>10</v>
-      </c>
       <c r="G91" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H91" s="1">
-        <v>20</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="I91" s="1">
+        <v>20</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:10">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D92" s="2">
         <v>17</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2">
         <v>64</v>
       </c>
-      <c r="F92" s="1">
-        <v>10</v>
-      </c>
       <c r="G92" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1">
         <v>20</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:9">
+      <c r="I92" s="1">
+        <v>20</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:10">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D93" s="2">
         <v>17</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2">
         <v>64</v>
       </c>
-      <c r="F93" s="1">
-        <v>10</v>
-      </c>
       <c r="G93" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H93" s="1">
         <v>20</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:9">
+      <c r="I93" s="1">
+        <v>20</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:10">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D94" s="2">
         <v>17</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2">
         <v>64</v>
       </c>
-      <c r="F94" s="1">
-        <v>10</v>
-      </c>
       <c r="G94" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H94" s="1">
         <v>20</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:9">
+      <c r="I94" s="1">
+        <v>20</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:10">
       <c r="A95" s="1">
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D95" s="2">
         <v>17</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2">
         <v>64</v>
       </c>
-      <c r="F95" s="1">
-        <v>10</v>
-      </c>
       <c r="G95" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H95" s="1">
         <v>20</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:9">
+      <c r="I95" s="1">
+        <v>20</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:10">
       <c r="A96" s="1">
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D96" s="2">
         <v>17</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
         <v>64</v>
       </c>
-      <c r="F96" s="1">
-        <v>10</v>
-      </c>
       <c r="G96" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H96" s="1">
         <v>20</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:9">
+      <c r="I96" s="1">
+        <v>20</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:10">
       <c r="A97" s="1">
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D97" s="2">
         <v>17</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2">
         <v>64</v>
       </c>
-      <c r="F97" s="1">
-        <v>10</v>
-      </c>
       <c r="G97" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H97" s="1">
         <v>20</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:9">
+      <c r="I97" s="1">
+        <v>20</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:10">
       <c r="A98" s="1">
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D98" s="2">
         <v>17</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2">
         <v>64</v>
       </c>
-      <c r="F98" s="1">
-        <v>10</v>
-      </c>
       <c r="G98" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H98" s="1">
         <v>20</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:9">
+      <c r="I98" s="1">
+        <v>20</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:10">
       <c r="A99" s="1">
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D99" s="2">
         <v>17</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2">
         <v>256</v>
       </c>
-      <c r="F99" s="1">
-        <v>10</v>
-      </c>
       <c r="G99" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H99" s="1">
         <v>20</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:9">
+      <c r="I99" s="1">
+        <v>20</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:10">
       <c r="A100" s="1">
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D100" s="2">
         <v>17</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2">
         <v>256</v>
       </c>
-      <c r="F100" s="1">
-        <v>10</v>
-      </c>
       <c r="G100" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H100" s="1">
         <v>20</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:9">
+      <c r="I100" s="1">
+        <v>20</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:10">
       <c r="A101" s="1">
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D101" s="2">
         <v>17</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2">
         <v>256</v>
       </c>
-      <c r="F101" s="1">
-        <v>10</v>
-      </c>
       <c r="G101" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H101" s="1">
         <v>20</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:9">
+      <c r="I101" s="1">
+        <v>20</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:10">
       <c r="A102" s="1">
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D102" s="2">
         <v>17</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2">
         <v>256</v>
       </c>
-      <c r="F102" s="1">
-        <v>10</v>
-      </c>
       <c r="G102" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H102" s="1">
         <v>20</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:9">
+      <c r="I102" s="1">
+        <v>20</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:10">
       <c r="A103" s="1">
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D103" s="2">
         <v>17</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2">
         <v>256</v>
       </c>
-      <c r="F103" s="1">
-        <v>10</v>
-      </c>
       <c r="G103" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H103" s="1">
         <v>20</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:9">
+      <c r="I103" s="1">
+        <v>20</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:10">
       <c r="A104" s="1">
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D104" s="2">
         <v>17</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2">
         <v>256</v>
       </c>
-      <c r="F104" s="1">
-        <v>10</v>
-      </c>
       <c r="G104" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H104" s="1">
         <v>20</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:9">
+      <c r="I104" s="1">
+        <v>20</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:10">
       <c r="A105" s="1">
         <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D105" s="2">
         <v>17</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2">
         <v>256</v>
       </c>
-      <c r="F105" s="1">
-        <v>10</v>
-      </c>
       <c r="G105" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H105" s="1">
         <v>20</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:9">
+      <c r="I105" s="1">
+        <v>20</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:10">
       <c r="A106" s="1">
         <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D106" s="2">
         <v>17</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2">
         <v>256</v>
       </c>
-      <c r="F106" s="1">
-        <v>10</v>
-      </c>
       <c r="G106" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H106" s="1">
         <v>20</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" hidden="1" customHeight="1" spans="1:9">
+      <c r="I106" s="1">
+        <v>20</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:10">
       <c r="A107" s="1">
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D107" s="2">
         <v>17</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2">
         <v>256</v>
       </c>
-      <c r="F107" s="1">
-        <v>10</v>
-      </c>
       <c r="G107" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H107" s="1">
         <v>20</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" hidden="1" customHeight="1" spans="1:9">
+      <c r="I107" s="1">
+        <v>20</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:10">
       <c r="A108" s="1">
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D108" s="2">
         <v>17</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2">
         <v>256</v>
       </c>
-      <c r="F108" s="1">
-        <v>10</v>
-      </c>
       <c r="G108" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H108" s="1">
         <v>20</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:9">
+      <c r="I108" s="1">
+        <v>20</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:10">
       <c r="A109" s="1">
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D109" s="2">
         <v>17</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2">
         <v>256</v>
       </c>
-      <c r="F109" s="1">
-        <v>10</v>
-      </c>
       <c r="G109" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H109" s="1">
         <v>20</v>
       </c>
-      <c r="I109" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:9">
+      <c r="I109" s="1">
+        <v>20</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:10">
       <c r="A110" s="1">
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D110" s="2">
         <v>17</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2">
         <v>4</v>
       </c>
-      <c r="F110" s="1">
-        <v>10</v>
-      </c>
       <c r="G110" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H110" s="1">
         <v>20</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:9">
+      <c r="I110" s="1">
+        <v>20</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:10">
       <c r="A111" s="1">
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D111" s="2">
         <v>17</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2">
         <v>4</v>
       </c>
-      <c r="F111" s="1">
-        <v>10</v>
-      </c>
       <c r="G111" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H111" s="1">
         <v>20</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:9">
+      <c r="I111" s="1">
+        <v>20</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:10">
       <c r="A112" s="1">
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D112" s="2">
         <v>17</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2">
         <v>4</v>
       </c>
-      <c r="F112" s="1">
-        <v>10</v>
-      </c>
       <c r="G112" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H112" s="1">
         <v>20</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:9">
+      <c r="I112" s="1">
+        <v>20</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:10">
       <c r="A113" s="1">
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D113" s="2">
         <v>17</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2">
         <v>4</v>
       </c>
-      <c r="F113" s="1">
-        <v>10</v>
-      </c>
       <c r="G113" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H113" s="1">
         <v>20</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:9">
+      <c r="I113" s="1">
+        <v>20</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:10">
       <c r="A114" s="1">
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D114" s="2">
         <v>17</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2">
         <v>4</v>
       </c>
-      <c r="F114" s="1">
-        <v>10</v>
-      </c>
       <c r="G114" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H114" s="1">
         <v>20</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:9">
+      <c r="I114" s="1">
+        <v>20</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:10">
       <c r="A115" s="1">
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D115" s="2">
         <v>17</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="2"/>
+      <c r="F115" s="2">
         <v>4</v>
       </c>
-      <c r="F115" s="1">
-        <v>10</v>
-      </c>
       <c r="G115" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H115" s="1">
         <v>20</v>
       </c>
-      <c r="I115" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:9">
+      <c r="I115" s="1">
+        <v>20</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:10">
       <c r="A116" s="1">
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D116" s="2">
         <v>17</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2">
         <v>4</v>
       </c>
-      <c r="F116" s="1">
-        <v>10</v>
-      </c>
       <c r="G116" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H116" s="1">
         <v>20</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:9">
+      <c r="I116" s="1">
+        <v>20</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:10">
       <c r="A117" s="1">
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D117" s="2">
         <v>17</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2">
         <v>4</v>
       </c>
-      <c r="F117" s="1">
-        <v>10</v>
-      </c>
       <c r="G117" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H117" s="1">
         <v>20</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:9">
+      <c r="I117" s="1">
+        <v>20</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:10">
       <c r="A118" s="1">
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D118" s="2">
         <v>17</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2">
         <v>4</v>
       </c>
-      <c r="F118" s="1">
-        <v>10</v>
-      </c>
       <c r="G118" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H118" s="1">
         <v>20</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:9">
+      <c r="I118" s="1">
+        <v>20</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:10">
       <c r="A119" s="1">
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D119" s="2">
         <v>17</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2">
         <v>4</v>
       </c>
-      <c r="F119" s="1">
-        <v>10</v>
-      </c>
       <c r="G119" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H119" s="1">
         <v>20</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:9">
+      <c r="I119" s="1">
+        <v>20</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:10">
       <c r="A120" s="1">
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D120" s="2">
         <v>17</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2">
         <v>4</v>
       </c>
-      <c r="F120" s="1">
-        <v>10</v>
-      </c>
       <c r="G120" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H120" s="1">
         <v>20</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:9">
+      <c r="I120" s="1">
+        <v>20</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:10">
       <c r="A121" s="1">
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D121" s="2">
         <v>17</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2">
         <v>4</v>
       </c>
-      <c r="F121" s="1">
-        <v>10</v>
-      </c>
       <c r="G121" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H121" s="1">
         <v>20</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:9">
+      <c r="I121" s="1">
+        <v>20</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:10">
       <c r="A122" s="1">
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D122" s="2">
         <v>17</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2">
         <v>4</v>
       </c>
-      <c r="F122" s="1">
-        <v>10</v>
-      </c>
       <c r="G122" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H122" s="1">
         <v>20</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:9">
+      <c r="I122" s="1">
+        <v>20</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:10">
       <c r="A123" s="1">
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D123" s="2">
         <v>17</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2">
         <v>4</v>
       </c>
-      <c r="F123" s="1">
-        <v>10</v>
-      </c>
       <c r="G123" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H123" s="1">
         <v>20</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:9">
+      <c r="I123" s="1">
+        <v>20</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:10">
       <c r="A124" s="1">
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D124" s="2">
         <v>17</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="2"/>
+      <c r="F124" s="2">
         <v>128</v>
       </c>
-      <c r="F124" s="1">
-        <v>10</v>
-      </c>
       <c r="G124" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H124" s="1">
         <v>20</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:9">
+      <c r="I124" s="1">
+        <v>20</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:10">
       <c r="A125" s="1">
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D125" s="2">
         <v>17</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2">
         <v>128</v>
       </c>
-      <c r="F125" s="1">
-        <v>10</v>
-      </c>
       <c r="G125" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H125" s="1">
         <v>20</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:9">
+      <c r="I125" s="1">
+        <v>20</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:10">
       <c r="A126" s="1">
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D126" s="2">
         <v>17</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="2"/>
+      <c r="F126" s="2">
         <v>128</v>
       </c>
-      <c r="F126" s="1">
+      <c r="G126" s="1">
         <v>1</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <v>13</v>
       </c>
-      <c r="H126" s="1">
-        <v>10</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:9">
+      <c r="I126" s="1">
+        <v>10</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:10">
       <c r="A127" s="1">
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D127" s="2">
         <v>17</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2">
         <v>128</v>
       </c>
-      <c r="F127" s="1">
-        <v>10</v>
-      </c>
       <c r="G127" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H127" s="1">
         <v>20</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:9">
+      <c r="I127" s="1">
+        <v>20</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:10">
       <c r="A128" s="1">
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D128" s="2">
         <v>17</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="2"/>
+      <c r="F128" s="2">
         <v>128</v>
       </c>
-      <c r="F128" s="1">
-        <v>10</v>
-      </c>
       <c r="G128" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H128" s="1">
         <v>20</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:9">
+      <c r="I128" s="1">
+        <v>20</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:10">
       <c r="A129" s="1">
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D129" s="2">
         <v>17</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2">
         <v>128</v>
       </c>
-      <c r="F129" s="1">
-        <v>10</v>
-      </c>
       <c r="G129" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H129" s="1">
         <v>20</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" hidden="1" customHeight="1" spans="1:9">
+      <c r="I129" s="1">
+        <v>20</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:10">
       <c r="A130" s="1">
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D130" s="2">
         <v>17</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2">
         <v>128</v>
       </c>
-      <c r="F130" s="1">
-        <v>10</v>
-      </c>
       <c r="G130" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H130" s="1">
         <v>20</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:9">
+      <c r="I130" s="1">
+        <v>20</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:10">
       <c r="A131" s="1">
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D131" s="2">
         <v>17</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="2"/>
+      <c r="F131" s="2">
         <v>128</v>
       </c>
-      <c r="F131" s="1">
-        <v>10</v>
-      </c>
       <c r="G131" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H131" s="1">
         <v>20</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:9">
+      <c r="I131" s="1">
+        <v>20</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:10">
       <c r="A132" s="1">
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D132" s="2">
         <v>17</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2">
         <v>128</v>
       </c>
-      <c r="F132" s="1">
-        <v>10</v>
-      </c>
       <c r="G132" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H132" s="1">
         <v>20</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:9">
+      <c r="I132" s="1">
+        <v>20</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:10">
       <c r="A133" s="1">
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D133" s="2">
         <v>17</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="2"/>
+      <c r="F133" s="2">
         <v>128</v>
       </c>
-      <c r="F133" s="1">
-        <v>10</v>
-      </c>
       <c r="G133" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H133" s="1">
         <v>20</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:9">
+      <c r="I133" s="1">
+        <v>20</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:10">
       <c r="A134" s="1">
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D134" s="2">
         <v>17</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2">
         <v>128</v>
       </c>
-      <c r="F134" s="1">
-        <v>10</v>
-      </c>
       <c r="G134" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H134" s="1">
         <v>20</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:9">
+      <c r="I134" s="1">
+        <v>20</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:10">
       <c r="A135" s="1">
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D135" s="2">
         <v>17</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="2"/>
+      <c r="F135" s="2">
         <v>8</v>
       </c>
-      <c r="F135" s="1">
-        <v>10</v>
-      </c>
       <c r="G135" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H135" s="1">
         <v>20</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:9">
+      <c r="I135" s="1">
+        <v>20</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:10">
       <c r="A136" s="1">
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D136" s="2">
         <v>17</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="2"/>
+      <c r="F136" s="2">
         <v>8</v>
       </c>
-      <c r="F136" s="1">
-        <v>10</v>
-      </c>
       <c r="G136" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H136" s="1">
         <v>20</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:9">
+      <c r="I136" s="1">
+        <v>20</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:10">
       <c r="A137" s="1">
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D137" s="2">
         <v>17</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="2"/>
+      <c r="F137" s="2">
         <v>8</v>
       </c>
-      <c r="F137" s="1">
-        <v>10</v>
-      </c>
       <c r="G137" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H137" s="1">
         <v>20</v>
       </c>
-      <c r="I137" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:9">
+      <c r="I137" s="1">
+        <v>20</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:10">
       <c r="A138" s="1">
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D138" s="2">
         <v>17</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="2"/>
+      <c r="F138" s="2">
         <v>8</v>
       </c>
-      <c r="F138" s="1">
-        <v>10</v>
-      </c>
       <c r="G138" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H138" s="1">
         <v>20</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:9">
+      <c r="I138" s="1">
+        <v>20</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:10">
       <c r="A139" s="1">
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D139" s="2">
         <v>17</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2">
         <v>8</v>
       </c>
-      <c r="F139" s="1">
-        <v>10</v>
-      </c>
       <c r="G139" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H139" s="1">
         <v>20</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:9">
+      <c r="I139" s="1">
+        <v>20</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:10">
       <c r="A140" s="1">
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D140" s="2">
         <v>17</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="2"/>
+      <c r="F140" s="2">
         <v>8</v>
       </c>
-      <c r="F140" s="1">
-        <v>10</v>
-      </c>
       <c r="G140" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H140" s="1">
         <v>20</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:9">
+      <c r="I140" s="1">
+        <v>20</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:10">
       <c r="A141" s="1">
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D141" s="2">
         <v>17</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2">
         <v>8</v>
       </c>
-      <c r="F141" s="1">
-        <v>10</v>
-      </c>
       <c r="G141" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H141" s="1">
         <v>20</v>
       </c>
-      <c r="I141" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:9">
+      <c r="I141" s="1">
+        <v>20</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:10">
       <c r="A142" s="1">
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D142" s="2">
         <v>17</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2">
         <v>8</v>
       </c>
-      <c r="F142" s="1">
-        <v>10</v>
-      </c>
       <c r="G142" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H142" s="1">
         <v>20</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:9">
+      <c r="I142" s="1">
+        <v>20</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:10">
       <c r="A143" s="1">
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D143" s="2">
         <v>17</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="2"/>
+      <c r="F143" s="2">
         <v>8</v>
       </c>
-      <c r="F143" s="1">
-        <v>10</v>
-      </c>
       <c r="G143" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H143" s="1">
         <v>20</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:9">
+      <c r="I143" s="1">
+        <v>20</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:10">
       <c r="A144" s="1">
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D144" s="2">
         <v>17</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="2"/>
+      <c r="F144" s="2">
         <v>8</v>
       </c>
-      <c r="F144" s="1">
-        <v>10</v>
-      </c>
       <c r="G144" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H144" s="1">
         <v>20</v>
       </c>
-      <c r="I144" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:9">
+      <c r="I144" s="1">
+        <v>20</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:10">
       <c r="A145" s="1">
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D145" s="2">
         <v>17</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="2"/>
+      <c r="F145" s="2">
         <v>8</v>
       </c>
-      <c r="F145" s="1">
-        <v>10</v>
-      </c>
       <c r="G145" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H145" s="1">
         <v>20</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:9">
+      <c r="I145" s="1">
+        <v>20</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:10">
       <c r="A146" s="1">
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D146" s="2">
         <v>17</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="2"/>
+      <c r="F146" s="2">
         <v>8</v>
       </c>
-      <c r="F146" s="1">
-        <v>10</v>
-      </c>
       <c r="G146" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H146" s="1">
         <v>20</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:9">
+      <c r="I146" s="1">
+        <v>20</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:10">
       <c r="A147" s="1">
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D147" s="2">
         <v>17</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="2"/>
+      <c r="F147" s="2">
         <v>16</v>
       </c>
-      <c r="F147" s="1">
-        <v>10</v>
-      </c>
       <c r="G147" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H147" s="1">
         <v>20</v>
       </c>
-      <c r="I147" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="1:9">
+      <c r="I147" s="1">
+        <v>20</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:10">
       <c r="A148" s="1">
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D148" s="2">
         <v>17</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="2"/>
+      <c r="F148" s="2">
         <v>16</v>
       </c>
-      <c r="F148" s="1">
-        <v>10</v>
-      </c>
       <c r="G148" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H148" s="1">
         <v>20</v>
       </c>
-      <c r="I148" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:9">
+      <c r="I148" s="1">
+        <v>20</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:10">
       <c r="A149" s="1">
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D149" s="2">
         <v>17</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="2"/>
+      <c r="F149" s="2">
         <v>16</v>
       </c>
-      <c r="F149" s="1">
-        <v>10</v>
-      </c>
       <c r="G149" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H149" s="1">
         <v>20</v>
       </c>
-      <c r="I149" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="1:9">
+      <c r="I149" s="1">
+        <v>20</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:10">
       <c r="A150" s="1">
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D150" s="2">
         <v>17</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="2"/>
+      <c r="F150" s="2">
         <v>16</v>
       </c>
-      <c r="F150" s="1">
-        <v>10</v>
-      </c>
       <c r="G150" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H150" s="1">
         <v>20</v>
       </c>
-      <c r="I150" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:9">
+      <c r="I150" s="1">
+        <v>20</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:10">
       <c r="A151" s="1">
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D151" s="2">
         <v>17</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="2"/>
+      <c r="F151" s="2">
         <v>16</v>
       </c>
-      <c r="F151" s="1">
-        <v>10</v>
-      </c>
       <c r="G151" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H151" s="1">
         <v>20</v>
       </c>
-      <c r="I151" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:9">
+      <c r="I151" s="1">
+        <v>20</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:10">
       <c r="A152" s="1">
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D152" s="2">
         <v>17</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2">
         <v>16</v>
       </c>
-      <c r="F152" s="1">
-        <v>10</v>
-      </c>
       <c r="G152" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H152" s="1">
         <v>20</v>
       </c>
-      <c r="I152" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="1:9">
+      <c r="I152" s="1">
+        <v>20</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:10">
       <c r="A153" s="1">
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D153" s="2">
         <v>17</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="2"/>
+      <c r="F153" s="2">
         <v>16</v>
       </c>
-      <c r="F153" s="1">
-        <v>10</v>
-      </c>
       <c r="G153" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H153" s="1">
         <v>20</v>
       </c>
-      <c r="I153" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="1:9">
+      <c r="I153" s="1">
+        <v>20</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:10">
       <c r="A154" s="1">
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D154" s="2">
         <v>17</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="2"/>
+      <c r="F154" s="2">
         <v>16</v>
       </c>
-      <c r="F154" s="1">
-        <v>10</v>
-      </c>
       <c r="G154" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H154" s="1">
         <v>20</v>
       </c>
-      <c r="I154" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="1:9">
+      <c r="I154" s="1">
+        <v>20</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:10">
       <c r="A155" s="1">
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D155" s="2">
         <v>17</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="2"/>
+      <c r="F155" s="2">
         <v>16</v>
       </c>
-      <c r="F155" s="1">
-        <v>10</v>
-      </c>
       <c r="G155" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H155" s="1">
         <v>20</v>
       </c>
-      <c r="I155" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" customHeight="1" spans="1:9">
+      <c r="I155" s="1">
+        <v>20</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:10">
       <c r="A156" s="1">
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D156" s="2">
         <v>17</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="2"/>
+      <c r="F156" s="2">
         <v>16</v>
       </c>
-      <c r="F156" s="1">
-        <v>10</v>
-      </c>
       <c r="G156" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H156" s="1">
         <v>20</v>
       </c>
-      <c r="I156" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:9">
+      <c r="I156" s="1">
+        <v>20</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:10">
       <c r="A157" s="1">
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D157" s="2">
         <v>17</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="2"/>
+      <c r="F157" s="2">
         <v>16</v>
       </c>
-      <c r="F157" s="1">
-        <v>10</v>
-      </c>
       <c r="G157" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H157" s="1">
         <v>20</v>
       </c>
-      <c r="I157" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:9">
+      <c r="I157" s="1">
+        <v>20</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:10">
       <c r="A158" s="1">
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D158" s="2">
         <v>17</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="2"/>
+      <c r="F158" s="2">
         <v>16</v>
       </c>
-      <c r="F158" s="1">
-        <v>10</v>
-      </c>
       <c r="G158" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H158" s="1">
         <v>20</v>
       </c>
-      <c r="I158" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:9">
+      <c r="I158" s="1">
+        <v>20</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:10">
       <c r="A159" s="1">
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D159" s="2">
         <v>17</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="2"/>
+      <c r="F159" s="2">
         <v>2</v>
       </c>
-      <c r="F159" s="1">
-        <v>10</v>
-      </c>
       <c r="G159" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H159" s="1">
         <v>20</v>
       </c>
-      <c r="I159" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" hidden="1" spans="1:9">
+      <c r="I159" s="1">
+        <v>20</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" spans="1:10">
       <c r="A160" s="1">
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D160" s="2">
         <v>17</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2">
         <v>2</v>
       </c>
-      <c r="F160" s="1">
-        <v>10</v>
-      </c>
       <c r="G160" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H160" s="1">
         <v>20</v>
       </c>
-      <c r="I160" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:9">
+      <c r="I160" s="1">
+        <v>20</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:10">
       <c r="A161" s="1">
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D161" s="2">
         <v>17</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="2"/>
+      <c r="F161" s="2">
         <v>2</v>
       </c>
-      <c r="F161" s="1">
-        <v>10</v>
-      </c>
       <c r="G161" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H161" s="1">
         <v>20</v>
       </c>
-      <c r="I161" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:9">
+      <c r="I161" s="1">
+        <v>20</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:10">
       <c r="A162" s="1">
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2">
         <v>17</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2">
         <v>2</v>
       </c>
-      <c r="F162" s="1">
-        <v>10</v>
-      </c>
       <c r="G162" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H162" s="1">
         <v>20</v>
       </c>
-      <c r="I162" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:9">
+      <c r="I162" s="1">
+        <v>20</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:10">
       <c r="A163" s="1">
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D163" s="2">
         <v>17</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2">
         <v>2</v>
       </c>
-      <c r="F163" s="1">
-        <v>10</v>
-      </c>
       <c r="G163" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H163" s="1">
         <v>20</v>
       </c>
-      <c r="I163" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:9">
+      <c r="I163" s="1">
+        <v>20</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:10">
       <c r="A164" s="1">
         <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D164" s="2">
         <v>17</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="2"/>
+      <c r="F164" s="2">
         <v>2</v>
       </c>
-      <c r="F164" s="1">
-        <v>10</v>
-      </c>
       <c r="G164" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H164" s="1">
         <v>20</v>
       </c>
-      <c r="I164" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="165" hidden="1" customHeight="1" spans="1:9">
+      <c r="I164" s="1">
+        <v>20</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:10">
       <c r="A165" s="1">
         <v>161</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D165" s="2">
         <v>17</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="2"/>
+      <c r="F165" s="2">
         <v>2</v>
       </c>
-      <c r="F165" s="1">
-        <v>10</v>
-      </c>
       <c r="G165" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H165" s="1">
         <v>20</v>
       </c>
-      <c r="I165" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="166" hidden="1" customHeight="1" spans="1:9">
+      <c r="I165" s="1">
+        <v>20</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:10">
       <c r="A166" s="1">
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D166" s="2">
         <v>17</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="2"/>
+      <c r="F166" s="2">
         <v>2</v>
       </c>
-      <c r="F166" s="1">
-        <v>10</v>
-      </c>
       <c r="G166" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H166" s="1">
         <v>20</v>
       </c>
-      <c r="I166" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="167" hidden="1" customHeight="1" spans="1:9">
+      <c r="I166" s="1">
+        <v>20</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:10">
       <c r="A167" s="1">
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D167" s="2">
         <v>17</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2">
         <v>2</v>
       </c>
-      <c r="F167" s="1">
-        <v>10</v>
-      </c>
       <c r="G167" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H167" s="1">
         <v>20</v>
       </c>
-      <c r="I167" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" hidden="1" customHeight="1" spans="1:9">
+      <c r="I167" s="1">
+        <v>20</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:10">
       <c r="A168" s="1">
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D168" s="2">
         <v>17</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2">
         <v>2</v>
       </c>
-      <c r="F168" s="1">
-        <v>10</v>
-      </c>
       <c r="G168" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H168" s="1">
         <v>20</v>
       </c>
-      <c r="I168" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" hidden="1" customHeight="1" spans="1:9">
+      <c r="I168" s="1">
+        <v>20</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:10">
       <c r="A169" s="1">
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D169" s="2">
         <v>17</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="2"/>
+      <c r="F169" s="2">
         <v>2</v>
       </c>
-      <c r="F169" s="1">
-        <v>10</v>
-      </c>
       <c r="G169" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H169" s="1">
         <v>20</v>
       </c>
-      <c r="I169" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170" hidden="1" customHeight="1" spans="1:9">
+      <c r="I169" s="1">
+        <v>20</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:10">
       <c r="A170" s="1">
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D170" s="2">
+        <v>17</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2">
+        <v>2</v>
+      </c>
+      <c r="G170" s="1">
+        <v>10</v>
+      </c>
+      <c r="H170" s="1">
+        <v>20</v>
+      </c>
+      <c r="I170" s="1">
+        <v>20</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:10">
+      <c r="A171" s="1">
+        <v>167</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D171" s="2">
+        <v>17</v>
+      </c>
+      <c r="E171" s="2">
+        <v>14</v>
+      </c>
+      <c r="F171" s="2">
+        <v>64</v>
+      </c>
+      <c r="G171" s="1">
+        <v>14</v>
+      </c>
+      <c r="H171" s="1">
+        <v>28</v>
+      </c>
+      <c r="I171" s="1">
+        <v>25</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:10">
+      <c r="A172" s="1">
+        <v>168</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" s="2">
+        <v>17</v>
+      </c>
+      <c r="E172" s="2">
+        <v>14</v>
+      </c>
+      <c r="F172" s="2">
+        <v>64</v>
+      </c>
+      <c r="G172" s="1">
+        <v>14</v>
+      </c>
+      <c r="H172" s="1">
+        <v>28</v>
+      </c>
+      <c r="I172" s="1">
+        <v>25</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:10">
+      <c r="A173" s="1">
+        <v>169</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D173" s="2">
+        <v>17</v>
+      </c>
+      <c r="E173" s="2">
+        <v>14</v>
+      </c>
+      <c r="F173" s="2">
+        <v>64</v>
+      </c>
+      <c r="G173" s="1">
+        <v>14</v>
+      </c>
+      <c r="H173" s="1">
+        <v>28</v>
+      </c>
+      <c r="I173" s="1">
+        <v>25</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:10">
+      <c r="A174" s="1">
+        <v>170</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D174" s="2">
+        <v>17</v>
+      </c>
+      <c r="E174" s="2">
+        <v>14</v>
+      </c>
+      <c r="F174" s="2">
+        <v>64</v>
+      </c>
+      <c r="G174" s="1">
+        <v>14</v>
+      </c>
+      <c r="H174" s="1">
+        <v>28</v>
+      </c>
+      <c r="I174" s="1">
+        <v>25</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:10">
+      <c r="A175" s="1">
+        <v>171</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" s="2">
+        <v>17</v>
+      </c>
+      <c r="E175" s="2">
+        <v>14</v>
+      </c>
+      <c r="F175" s="2">
+        <v>64</v>
+      </c>
+      <c r="G175" s="1">
+        <v>14</v>
+      </c>
+      <c r="H175" s="1">
+        <v>28</v>
+      </c>
+      <c r="I175" s="1">
+        <v>25</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:10">
+      <c r="A176" s="1">
+        <v>172</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" s="2">
+        <v>17</v>
+      </c>
+      <c r="E176" s="2">
+        <v>14</v>
+      </c>
+      <c r="F176" s="2">
+        <v>64</v>
+      </c>
+      <c r="G176" s="1">
+        <v>14</v>
+      </c>
+      <c r="H176" s="1">
+        <v>28</v>
+      </c>
+      <c r="I176" s="1">
+        <v>25</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:10">
+      <c r="A177" s="1">
+        <v>173</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" s="2">
+        <v>17</v>
+      </c>
+      <c r="E177" s="2">
+        <v>14</v>
+      </c>
+      <c r="F177" s="2">
+        <v>64</v>
+      </c>
+      <c r="G177" s="1">
+        <v>14</v>
+      </c>
+      <c r="H177" s="1">
+        <v>28</v>
+      </c>
+      <c r="I177" s="1">
+        <v>25</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:10">
+      <c r="A178" s="1">
+        <v>174</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" s="2">
+        <v>17</v>
+      </c>
+      <c r="E178" s="2">
+        <v>14</v>
+      </c>
+      <c r="F178" s="2">
+        <v>64</v>
+      </c>
+      <c r="G178" s="1">
+        <v>14</v>
+      </c>
+      <c r="H178" s="1">
+        <v>28</v>
+      </c>
+      <c r="I178" s="1">
+        <v>25</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:10">
+      <c r="A179" s="1">
+        <v>175</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="2">
+        <v>17</v>
+      </c>
+      <c r="E179" s="2">
+        <v>14</v>
+      </c>
+      <c r="F179" s="2">
+        <v>64</v>
+      </c>
+      <c r="G179" s="1">
+        <v>14</v>
+      </c>
+      <c r="H179" s="1">
+        <v>28</v>
+      </c>
+      <c r="I179" s="1">
+        <v>25</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:10">
+      <c r="A180" s="1">
+        <v>176</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D180" s="2">
+        <v>17</v>
+      </c>
+      <c r="E180" s="2">
+        <v>14</v>
+      </c>
+      <c r="F180" s="2">
+        <v>64</v>
+      </c>
+      <c r="G180" s="1">
+        <v>14</v>
+      </c>
+      <c r="H180" s="1">
+        <v>28</v>
+      </c>
+      <c r="I180" s="1">
+        <v>25</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:10">
+      <c r="A181" s="1">
+        <v>177</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D181" s="2">
+        <v>17</v>
+      </c>
+      <c r="E181" s="2">
+        <v>14</v>
+      </c>
+      <c r="F181" s="2">
+        <v>64</v>
+      </c>
+      <c r="G181" s="1">
+        <v>14</v>
+      </c>
+      <c r="H181" s="1">
+        <v>28</v>
+      </c>
+      <c r="I181" s="1">
+        <v>25</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:10">
+      <c r="A182" s="1">
+        <v>178</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D182" s="2">
+        <v>17</v>
+      </c>
+      <c r="E182" s="2">
+        <v>14</v>
+      </c>
+      <c r="F182" s="2">
+        <v>256</v>
+      </c>
+      <c r="G182" s="1">
+        <v>14</v>
+      </c>
+      <c r="H182" s="1">
+        <v>28</v>
+      </c>
+      <c r="I182" s="1">
+        <v>25</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:10">
+      <c r="A183" s="1">
+        <v>179</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183" s="2">
+        <v>17</v>
+      </c>
+      <c r="E183" s="2">
+        <v>14</v>
+      </c>
+      <c r="F183" s="2">
+        <v>256</v>
+      </c>
+      <c r="G183" s="1">
+        <v>14</v>
+      </c>
+      <c r="H183" s="1">
+        <v>28</v>
+      </c>
+      <c r="I183" s="1">
+        <v>25</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:10">
+      <c r="A184" s="1">
+        <v>180</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D184" s="2">
+        <v>17</v>
+      </c>
+      <c r="E184" s="2">
+        <v>14</v>
+      </c>
+      <c r="F184" s="2">
+        <v>256</v>
+      </c>
+      <c r="G184" s="1">
+        <v>14</v>
+      </c>
+      <c r="H184" s="1">
+        <v>28</v>
+      </c>
+      <c r="I184" s="1">
+        <v>25</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:10">
+      <c r="A185" s="1">
+        <v>181</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D185" s="2">
+        <v>17</v>
+      </c>
+      <c r="E185" s="2">
+        <v>14</v>
+      </c>
+      <c r="F185" s="2">
+        <v>256</v>
+      </c>
+      <c r="G185" s="1">
+        <v>14</v>
+      </c>
+      <c r="H185" s="1">
+        <v>28</v>
+      </c>
+      <c r="I185" s="1">
+        <v>25</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:10">
+      <c r="A186" s="1">
+        <v>182</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D186" s="2">
+        <v>17</v>
+      </c>
+      <c r="E186" s="2">
+        <v>14</v>
+      </c>
+      <c r="F186" s="2">
+        <v>256</v>
+      </c>
+      <c r="G186" s="1">
+        <v>14</v>
+      </c>
+      <c r="H186" s="1">
+        <v>28</v>
+      </c>
+      <c r="I186" s="1">
+        <v>25</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:10">
+      <c r="A187" s="1">
+        <v>183</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187" s="2">
+        <v>17</v>
+      </c>
+      <c r="E187" s="2">
+        <v>14</v>
+      </c>
+      <c r="F187" s="2">
+        <v>256</v>
+      </c>
+      <c r="G187" s="1">
+        <v>14</v>
+      </c>
+      <c r="H187" s="1">
+        <v>28</v>
+      </c>
+      <c r="I187" s="1">
+        <v>25</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:10">
+      <c r="A188" s="1">
+        <v>184</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D188" s="2">
+        <v>17</v>
+      </c>
+      <c r="E188" s="2">
+        <v>14</v>
+      </c>
+      <c r="F188" s="2">
+        <v>256</v>
+      </c>
+      <c r="G188" s="1">
+        <v>14</v>
+      </c>
+      <c r="H188" s="1">
+        <v>28</v>
+      </c>
+      <c r="I188" s="1">
+        <v>25</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:10">
+      <c r="A189" s="1">
+        <v>185</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D189" s="2">
+        <v>17</v>
+      </c>
+      <c r="E189" s="2">
+        <v>14</v>
+      </c>
+      <c r="F189" s="2">
+        <v>256</v>
+      </c>
+      <c r="G189" s="1">
+        <v>14</v>
+      </c>
+      <c r="H189" s="1">
+        <v>28</v>
+      </c>
+      <c r="I189" s="1">
+        <v>25</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:10">
+      <c r="A190" s="1">
+        <v>186</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D190" s="2">
+        <v>17</v>
+      </c>
+      <c r="E190" s="2">
+        <v>14</v>
+      </c>
+      <c r="F190" s="2">
+        <v>256</v>
+      </c>
+      <c r="G190" s="1">
+        <v>14</v>
+      </c>
+      <c r="H190" s="1">
+        <v>28</v>
+      </c>
+      <c r="I190" s="1">
+        <v>25</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:10">
+      <c r="A191" s="1">
+        <v>187</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D191" s="2">
+        <v>17</v>
+      </c>
+      <c r="E191" s="2">
+        <v>14</v>
+      </c>
+      <c r="F191" s="2">
+        <v>256</v>
+      </c>
+      <c r="G191" s="1">
+        <v>14</v>
+      </c>
+      <c r="H191" s="1">
+        <v>28</v>
+      </c>
+      <c r="I191" s="1">
+        <v>25</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:10">
+      <c r="A192" s="1">
+        <v>188</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D192" s="2">
+        <v>17</v>
+      </c>
+      <c r="E192" s="2">
+        <v>14</v>
+      </c>
+      <c r="F192" s="2">
+        <v>256</v>
+      </c>
+      <c r="G192" s="1">
+        <v>14</v>
+      </c>
+      <c r="H192" s="1">
+        <v>28</v>
+      </c>
+      <c r="I192" s="1">
+        <v>25</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:10">
+      <c r="A193" s="1">
+        <v>189</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D193" s="2">
+        <v>18</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2">
+        <v>4</v>
+      </c>
+      <c r="G193" s="1">
+        <v>14</v>
+      </c>
+      <c r="H193" s="1">
+        <v>25</v>
+      </c>
+      <c r="I193" s="1">
+        <v>25</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:10">
+      <c r="A194" s="1">
+        <v>190</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D194" s="2">
+        <v>18</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2">
+        <v>4</v>
+      </c>
+      <c r="G194" s="1">
+        <v>14</v>
+      </c>
+      <c r="H194" s="1">
+        <v>25</v>
+      </c>
+      <c r="I194" s="1">
+        <v>25</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:10">
+      <c r="A195" s="1">
+        <v>191</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D195" s="2">
+        <v>18</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2">
+        <v>4</v>
+      </c>
+      <c r="G195" s="1">
+        <v>14</v>
+      </c>
+      <c r="H195" s="1">
+        <v>25</v>
+      </c>
+      <c r="I195" s="1">
+        <v>25</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="1:10">
+      <c r="A196" s="1">
+        <v>192</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D196" s="2">
+        <v>18</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2">
+        <v>4</v>
+      </c>
+      <c r="G196" s="1">
+        <v>14</v>
+      </c>
+      <c r="H196" s="1">
+        <v>25</v>
+      </c>
+      <c r="I196" s="1">
+        <v>25</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:10">
+      <c r="A197" s="1">
+        <v>193</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" s="2">
+        <v>18</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2">
+        <v>4</v>
+      </c>
+      <c r="G197" s="1">
+        <v>14</v>
+      </c>
+      <c r="H197" s="1">
+        <v>25</v>
+      </c>
+      <c r="I197" s="1">
+        <v>25</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:10">
+      <c r="A198" s="1">
+        <v>194</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D198" s="2">
+        <v>18</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2">
+        <v>4</v>
+      </c>
+      <c r="G198" s="1">
+        <v>14</v>
+      </c>
+      <c r="H198" s="1">
+        <v>25</v>
+      </c>
+      <c r="I198" s="1">
+        <v>25</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:10">
+      <c r="A199" s="1">
+        <v>195</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D199" s="2">
+        <v>18</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2">
+        <v>4</v>
+      </c>
+      <c r="G199" s="1">
+        <v>14</v>
+      </c>
+      <c r="H199" s="1">
+        <v>25</v>
+      </c>
+      <c r="I199" s="1">
+        <v>25</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="1:10">
+      <c r="A200" s="1">
+        <v>196</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D200" s="2">
+        <v>18</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2">
+        <v>4</v>
+      </c>
+      <c r="G200" s="1">
+        <v>14</v>
+      </c>
+      <c r="H200" s="1">
+        <v>25</v>
+      </c>
+      <c r="I200" s="1">
+        <v>25</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:10">
+      <c r="A201" s="1">
+        <v>197</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D201" s="2">
+        <v>18</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2">
+        <v>4</v>
+      </c>
+      <c r="G201" s="1">
+        <v>14</v>
+      </c>
+      <c r="H201" s="1">
+        <v>25</v>
+      </c>
+      <c r="I201" s="1">
+        <v>25</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:10">
+      <c r="A202" s="1">
+        <v>198</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D202" s="2">
+        <v>18</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2">
+        <v>4</v>
+      </c>
+      <c r="G202" s="1">
+        <v>14</v>
+      </c>
+      <c r="H202" s="1">
+        <v>25</v>
+      </c>
+      <c r="I202" s="1">
+        <v>25</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="1:10">
+      <c r="A203" s="1">
+        <v>199</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D203" s="2">
+        <v>18</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2">
+        <v>4</v>
+      </c>
+      <c r="G203" s="1">
+        <v>14</v>
+      </c>
+      <c r="H203" s="1">
+        <v>25</v>
+      </c>
+      <c r="I203" s="1">
+        <v>25</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:10">
+      <c r="A204" s="1">
+        <v>200</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D170" s="2">
-        <v>17</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="C204" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D204" s="2">
+        <v>18</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2">
+        <v>4</v>
+      </c>
+      <c r="G204" s="1">
+        <v>14</v>
+      </c>
+      <c r="H204" s="1">
+        <v>25</v>
+      </c>
+      <c r="I204" s="1">
+        <v>25</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:10">
+      <c r="A205" s="1">
+        <v>201</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D205" s="2">
+        <v>18</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2">
+        <v>4</v>
+      </c>
+      <c r="G205" s="1">
+        <v>14</v>
+      </c>
+      <c r="H205" s="1">
+        <v>25</v>
+      </c>
+      <c r="I205" s="1">
+        <v>25</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="1:10">
+      <c r="A206" s="1">
+        <v>202</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D206" s="2">
+        <v>18</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2">
+        <v>4</v>
+      </c>
+      <c r="G206" s="1">
+        <v>14</v>
+      </c>
+      <c r="H206" s="1">
+        <v>25</v>
+      </c>
+      <c r="I206" s="1">
+        <v>25</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:10">
+      <c r="A207" s="1">
+        <v>203</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D207" s="2">
+        <v>18</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2">
+        <v>128</v>
+      </c>
+      <c r="G207" s="1">
+        <v>14</v>
+      </c>
+      <c r="H207" s="1">
+        <v>25</v>
+      </c>
+      <c r="I207" s="1">
+        <v>25</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:10">
+      <c r="A208" s="1">
+        <v>204</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D208" s="2">
+        <v>18</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2">
+        <v>128</v>
+      </c>
+      <c r="G208" s="1">
+        <v>14</v>
+      </c>
+      <c r="H208" s="1">
+        <v>25</v>
+      </c>
+      <c r="I208" s="1">
+        <v>25</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="1:10">
+      <c r="A209" s="1">
+        <v>205</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D209" s="2">
+        <v>18</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2">
+        <v>128</v>
+      </c>
+      <c r="G209" s="1">
+        <v>1</v>
+      </c>
+      <c r="H209" s="1">
+        <v>13</v>
+      </c>
+      <c r="I209" s="1">
+        <v>10</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:10">
+      <c r="A210" s="1">
+        <v>206</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D210" s="2">
+        <v>18</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2">
+        <v>128</v>
+      </c>
+      <c r="G210" s="1">
+        <v>14</v>
+      </c>
+      <c r="H210" s="1">
+        <v>25</v>
+      </c>
+      <c r="I210" s="1">
+        <v>25</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:10">
+      <c r="A211" s="1">
+        <v>207</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D211" s="2">
+        <v>18</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2">
+        <v>128</v>
+      </c>
+      <c r="G211" s="1">
+        <v>14</v>
+      </c>
+      <c r="H211" s="1">
+        <v>25</v>
+      </c>
+      <c r="I211" s="1">
+        <v>25</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212" customHeight="1" spans="1:10">
+      <c r="A212" s="1">
+        <v>208</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D212" s="2">
+        <v>18</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2">
+        <v>128</v>
+      </c>
+      <c r="G212" s="1">
+        <v>14</v>
+      </c>
+      <c r="H212" s="1">
+        <v>25</v>
+      </c>
+      <c r="I212" s="1">
+        <v>25</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:10">
+      <c r="A213" s="1">
+        <v>209</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D213" s="2">
+        <v>18</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2">
+        <v>128</v>
+      </c>
+      <c r="G213" s="1">
+        <v>14</v>
+      </c>
+      <c r="H213" s="1">
+        <v>25</v>
+      </c>
+      <c r="I213" s="1">
+        <v>25</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:10">
+      <c r="A214" s="1">
+        <v>210</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D214" s="2">
+        <v>18</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2">
+        <v>128</v>
+      </c>
+      <c r="G214" s="1">
+        <v>14</v>
+      </c>
+      <c r="H214" s="1">
+        <v>25</v>
+      </c>
+      <c r="I214" s="1">
+        <v>25</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="1:10">
+      <c r="A215" s="1">
+        <v>211</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D215" s="2">
+        <v>18</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2">
+        <v>128</v>
+      </c>
+      <c r="G215" s="1">
+        <v>14</v>
+      </c>
+      <c r="H215" s="1">
+        <v>25</v>
+      </c>
+      <c r="I215" s="1">
+        <v>25</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:10">
+      <c r="A216" s="1">
+        <v>212</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D216" s="2">
+        <v>18</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2">
+        <v>128</v>
+      </c>
+      <c r="G216" s="1">
+        <v>14</v>
+      </c>
+      <c r="H216" s="1">
+        <v>25</v>
+      </c>
+      <c r="I216" s="1">
+        <v>25</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="1:10">
+      <c r="A217" s="1">
+        <v>213</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D217" s="2">
+        <v>18</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2">
+        <v>128</v>
+      </c>
+      <c r="G217" s="1">
+        <v>14</v>
+      </c>
+      <c r="H217" s="1">
+        <v>25</v>
+      </c>
+      <c r="I217" s="1">
+        <v>25</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:10">
+      <c r="A218" s="1">
+        <v>214</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D218" s="2">
+        <v>18</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2">
+        <v>8</v>
+      </c>
+      <c r="G218" s="1">
+        <v>14</v>
+      </c>
+      <c r="H218" s="1">
+        <v>25</v>
+      </c>
+      <c r="I218" s="1">
+        <v>25</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="1:10">
+      <c r="A219" s="1">
+        <v>215</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D219" s="2">
+        <v>18</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2">
+        <v>8</v>
+      </c>
+      <c r="G219" s="1">
+        <v>14</v>
+      </c>
+      <c r="H219" s="1">
+        <v>25</v>
+      </c>
+      <c r="I219" s="1">
+        <v>25</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:10">
+      <c r="A220" s="1">
+        <v>216</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D220" s="2">
+        <v>18</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2">
+        <v>8</v>
+      </c>
+      <c r="G220" s="1">
+        <v>14</v>
+      </c>
+      <c r="H220" s="1">
+        <v>25</v>
+      </c>
+      <c r="I220" s="1">
+        <v>25</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="1:10">
+      <c r="A221" s="1">
+        <v>217</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D221" s="2">
+        <v>18</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2">
+        <v>8</v>
+      </c>
+      <c r="G221" s="1">
+        <v>14</v>
+      </c>
+      <c r="H221" s="1">
+        <v>25</v>
+      </c>
+      <c r="I221" s="1">
+        <v>25</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:10">
+      <c r="A222" s="1">
+        <v>218</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D222" s="2">
+        <v>18</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2">
+        <v>8</v>
+      </c>
+      <c r="G222" s="1">
+        <v>14</v>
+      </c>
+      <c r="H222" s="1">
+        <v>25</v>
+      </c>
+      <c r="I222" s="1">
+        <v>25</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="1:10">
+      <c r="A223" s="1">
+        <v>219</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D223" s="2">
+        <v>18</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2">
+        <v>8</v>
+      </c>
+      <c r="G223" s="1">
+        <v>14</v>
+      </c>
+      <c r="H223" s="1">
+        <v>25</v>
+      </c>
+      <c r="I223" s="1">
+        <v>25</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:10">
+      <c r="A224" s="1">
+        <v>220</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D224" s="2">
+        <v>18</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2">
+        <v>8</v>
+      </c>
+      <c r="G224" s="1">
+        <v>14</v>
+      </c>
+      <c r="H224" s="1">
+        <v>25</v>
+      </c>
+      <c r="I224" s="1">
+        <v>25</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:10">
+      <c r="A225" s="1">
+        <v>221</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D225" s="2">
+        <v>18</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2">
+        <v>8</v>
+      </c>
+      <c r="G225" s="1">
+        <v>14</v>
+      </c>
+      <c r="H225" s="1">
+        <v>25</v>
+      </c>
+      <c r="I225" s="1">
+        <v>25</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:10">
+      <c r="A226" s="1">
+        <v>222</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D226" s="2">
+        <v>18</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2">
+        <v>8</v>
+      </c>
+      <c r="G226" s="1">
+        <v>14</v>
+      </c>
+      <c r="H226" s="1">
+        <v>25</v>
+      </c>
+      <c r="I226" s="1">
+        <v>25</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:10">
+      <c r="A227" s="1">
+        <v>223</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D227" s="2">
+        <v>18</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2">
+        <v>8</v>
+      </c>
+      <c r="G227" s="1">
+        <v>14</v>
+      </c>
+      <c r="H227" s="1">
+        <v>25</v>
+      </c>
+      <c r="I227" s="1">
+        <v>25</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:10">
+      <c r="A228" s="1">
+        <v>224</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D228" s="2">
+        <v>18</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2">
+        <v>8</v>
+      </c>
+      <c r="G228" s="1">
+        <v>14</v>
+      </c>
+      <c r="H228" s="1">
+        <v>25</v>
+      </c>
+      <c r="I228" s="1">
+        <v>25</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:10">
+      <c r="A229" s="1">
+        <v>225</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D229" s="2">
+        <v>18</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2">
+        <v>8</v>
+      </c>
+      <c r="G229" s="1">
+        <v>14</v>
+      </c>
+      <c r="H229" s="1">
+        <v>25</v>
+      </c>
+      <c r="I229" s="1">
+        <v>25</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="1:10">
+      <c r="A230" s="1">
+        <v>226</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D230" s="2">
+        <v>18</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2">
+        <v>16</v>
+      </c>
+      <c r="G230" s="1">
+        <v>14</v>
+      </c>
+      <c r="H230" s="1">
+        <v>25</v>
+      </c>
+      <c r="I230" s="1">
+        <v>25</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:10">
+      <c r="A231" s="1">
+        <v>227</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D231" s="2">
+        <v>18</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2">
+        <v>16</v>
+      </c>
+      <c r="G231" s="1">
+        <v>14</v>
+      </c>
+      <c r="H231" s="1">
+        <v>25</v>
+      </c>
+      <c r="I231" s="1">
+        <v>25</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="1:10">
+      <c r="A232" s="1">
+        <v>228</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D232" s="2">
+        <v>18</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2">
+        <v>16</v>
+      </c>
+      <c r="G232" s="1">
+        <v>14</v>
+      </c>
+      <c r="H232" s="1">
+        <v>25</v>
+      </c>
+      <c r="I232" s="1">
+        <v>25</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:10">
+      <c r="A233" s="1">
+        <v>229</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D233" s="2">
+        <v>18</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2">
+        <v>16</v>
+      </c>
+      <c r="G233" s="1">
+        <v>14</v>
+      </c>
+      <c r="H233" s="1">
+        <v>25</v>
+      </c>
+      <c r="I233" s="1">
+        <v>25</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:10">
+      <c r="A234" s="1">
+        <v>230</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D234" s="2">
+        <v>18</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2">
+        <v>16</v>
+      </c>
+      <c r="G234" s="1">
+        <v>14</v>
+      </c>
+      <c r="H234" s="1">
+        <v>25</v>
+      </c>
+      <c r="I234" s="1">
+        <v>25</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:10">
+      <c r="A235" s="1">
+        <v>231</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D235" s="2">
+        <v>18</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2">
+        <v>16</v>
+      </c>
+      <c r="G235" s="1">
+        <v>14</v>
+      </c>
+      <c r="H235" s="1">
+        <v>25</v>
+      </c>
+      <c r="I235" s="1">
+        <v>25</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="1:10">
+      <c r="A236" s="1">
+        <v>232</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D236" s="2">
+        <v>18</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2">
+        <v>16</v>
+      </c>
+      <c r="G236" s="1">
+        <v>14</v>
+      </c>
+      <c r="H236" s="1">
+        <v>25</v>
+      </c>
+      <c r="I236" s="1">
+        <v>25</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:10">
+      <c r="A237" s="1">
+        <v>233</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D237" s="2">
+        <v>18</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2">
+        <v>16</v>
+      </c>
+      <c r="G237" s="1">
+        <v>14</v>
+      </c>
+      <c r="H237" s="1">
+        <v>25</v>
+      </c>
+      <c r="I237" s="1">
+        <v>25</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:10">
+      <c r="A238" s="1">
+        <v>234</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D238" s="2">
+        <v>18</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2">
+        <v>16</v>
+      </c>
+      <c r="G238" s="1">
+        <v>14</v>
+      </c>
+      <c r="H238" s="1">
+        <v>25</v>
+      </c>
+      <c r="I238" s="1">
+        <v>25</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="1:10">
+      <c r="A239" s="1">
+        <v>235</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D239" s="2">
+        <v>18</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2">
+        <v>16</v>
+      </c>
+      <c r="G239" s="1">
+        <v>14</v>
+      </c>
+      <c r="H239" s="1">
+        <v>25</v>
+      </c>
+      <c r="I239" s="1">
+        <v>25</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:10">
+      <c r="A240" s="1">
+        <v>236</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D240" s="2">
+        <v>18</v>
+      </c>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2">
+        <v>16</v>
+      </c>
+      <c r="G240" s="1">
+        <v>14</v>
+      </c>
+      <c r="H240" s="1">
+        <v>25</v>
+      </c>
+      <c r="I240" s="1">
+        <v>25</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:10">
+      <c r="A241" s="1">
+        <v>237</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D241" s="2">
+        <v>18</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2">
+        <v>16</v>
+      </c>
+      <c r="G241" s="1">
+        <v>14</v>
+      </c>
+      <c r="H241" s="1">
+        <v>25</v>
+      </c>
+      <c r="I241" s="1">
+        <v>25</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="1:10">
+      <c r="A242" s="1">
+        <v>238</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D242" s="2">
+        <v>18</v>
+      </c>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2">
         <v>2</v>
       </c>
-      <c r="F170" s="1">
-        <v>10</v>
-      </c>
-      <c r="G170" s="1">
-        <v>20</v>
-      </c>
-      <c r="H170" s="1">
-        <v>20</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>59</v>
+      <c r="G242" s="1">
+        <v>14</v>
+      </c>
+      <c r="H242" s="1">
+        <v>25</v>
+      </c>
+      <c r="I242" s="1">
+        <v>25</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:10">
+      <c r="A243" s="1">
+        <v>239</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D243" s="2">
+        <v>18</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2">
+        <v>2</v>
+      </c>
+      <c r="G243" s="1">
+        <v>14</v>
+      </c>
+      <c r="H243" s="1">
+        <v>25</v>
+      </c>
+      <c r="I243" s="1">
+        <v>25</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:10">
+      <c r="A244" s="1">
+        <v>240</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D244" s="2">
+        <v>18</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2">
+        <v>2</v>
+      </c>
+      <c r="G244" s="1">
+        <v>14</v>
+      </c>
+      <c r="H244" s="1">
+        <v>25</v>
+      </c>
+      <c r="I244" s="1">
+        <v>25</v>
+      </c>
+      <c r="J244" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:10">
+      <c r="A245" s="1">
+        <v>241</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D245" s="2">
+        <v>18</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2">
+        <v>2</v>
+      </c>
+      <c r="G245" s="1">
+        <v>14</v>
+      </c>
+      <c r="H245" s="1">
+        <v>25</v>
+      </c>
+      <c r="I245" s="1">
+        <v>25</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="1:10">
+      <c r="A246" s="1">
+        <v>242</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D246" s="2">
+        <v>18</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2">
+        <v>2</v>
+      </c>
+      <c r="G246" s="1">
+        <v>14</v>
+      </c>
+      <c r="H246" s="1">
+        <v>25</v>
+      </c>
+      <c r="I246" s="1">
+        <v>25</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:10">
+      <c r="A247" s="1">
+        <v>243</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D247" s="2">
+        <v>18</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2">
+        <v>2</v>
+      </c>
+      <c r="G247" s="1">
+        <v>14</v>
+      </c>
+      <c r="H247" s="1">
+        <v>25</v>
+      </c>
+      <c r="I247" s="1">
+        <v>25</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:10">
+      <c r="A248" s="1">
+        <v>244</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D248" s="2">
+        <v>18</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2">
+        <v>2</v>
+      </c>
+      <c r="G248" s="1">
+        <v>14</v>
+      </c>
+      <c r="H248" s="1">
+        <v>25</v>
+      </c>
+      <c r="I248" s="1">
+        <v>25</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" customHeight="1" spans="1:10">
+      <c r="A249" s="1">
+        <v>245</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D249" s="2">
+        <v>18</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2">
+        <v>2</v>
+      </c>
+      <c r="G249" s="1">
+        <v>14</v>
+      </c>
+      <c r="H249" s="1">
+        <v>25</v>
+      </c>
+      <c r="I249" s="1">
+        <v>25</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="1:10">
+      <c r="A250" s="1">
+        <v>246</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D250" s="2">
+        <v>18</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2">
+        <v>2</v>
+      </c>
+      <c r="G250" s="1">
+        <v>14</v>
+      </c>
+      <c r="H250" s="1">
+        <v>25</v>
+      </c>
+      <c r="I250" s="1">
+        <v>25</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="1:10">
+      <c r="A251" s="1">
+        <v>247</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D251" s="2">
+        <v>18</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2">
+        <v>2</v>
+      </c>
+      <c r="G251" s="1">
+        <v>14</v>
+      </c>
+      <c r="H251" s="1">
+        <v>25</v>
+      </c>
+      <c r="I251" s="1">
+        <v>25</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:10">
+      <c r="A252" s="1">
+        <v>248</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D252" s="2">
+        <v>18</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2">
+        <v>2</v>
+      </c>
+      <c r="G252" s="1">
+        <v>14</v>
+      </c>
+      <c r="H252" s="1">
+        <v>25</v>
+      </c>
+      <c r="I252" s="1">
+        <v>25</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="253" customHeight="1" spans="1:10">
+      <c r="A253" s="1">
+        <v>249</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D253" s="2">
+        <v>18</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2">
+        <v>2</v>
+      </c>
+      <c r="G253" s="1">
+        <v>14</v>
+      </c>
+      <c r="H253" s="1">
+        <v>25</v>
+      </c>
+      <c r="I253" s="1">
+        <v>25</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:I170">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="13级防具"/>
-        <filter val="13级护手"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A4:J253">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SceneServer/tools/Xlsx/kx_item_attr_upgrade.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_upgrade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16425"/>
+    <workbookView windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -1406,11 +1406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C377" sqref="C377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1541,7 +1541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
+    <row r="5" hidden="1" customHeight="1" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
+    <row r="6" hidden="1" customHeight="1" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
+    <row r="7" hidden="1" customHeight="1" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" hidden="1" customHeight="1" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
+    <row r="9" hidden="1" customHeight="1" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
+    <row r="10" hidden="1" customHeight="1" spans="1:10">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
+    <row r="11" hidden="1" customHeight="1" spans="1:10">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
+    <row r="12" hidden="1" customHeight="1" spans="1:10">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
+    <row r="13" hidden="1" customHeight="1" spans="1:10">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
+    <row r="14" hidden="1" customHeight="1" spans="1:10">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
+    <row r="15" hidden="1" customHeight="1" spans="1:10">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
+    <row r="16" hidden="1" customHeight="1" spans="1:10">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
+    <row r="17" hidden="1" customHeight="1" spans="1:10">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" hidden="1" customHeight="1" spans="1:10">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
+    <row r="19" hidden="1" customHeight="1" spans="1:10">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
+    <row r="20" hidden="1" customHeight="1" spans="1:10">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
+    <row r="21" hidden="1" customHeight="1" spans="1:10">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
+    <row r="22" hidden="1" customHeight="1" spans="1:10">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
+    <row r="23" hidden="1" customHeight="1" spans="1:10">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
+    <row r="24" hidden="1" customHeight="1" spans="1:10">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
+    <row r="25" hidden="1" customHeight="1" spans="1:10">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
+    <row r="26" hidden="1" customHeight="1" spans="1:10">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
+    <row r="27" hidden="1" customHeight="1" spans="1:10">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
+    <row r="28" hidden="1" customHeight="1" spans="1:10">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:10">
+    <row r="29" hidden="1" customHeight="1" spans="1:10">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:10">
+    <row r="30" hidden="1" customHeight="1" spans="1:10">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:10">
+    <row r="31" hidden="1" customHeight="1" spans="1:10">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:10">
+    <row r="32" hidden="1" customHeight="1" spans="1:10">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:10">
+    <row r="33" hidden="1" customHeight="1" spans="1:10">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:10">
+    <row r="34" hidden="1" customHeight="1" spans="1:10">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:10">
+    <row r="35" hidden="1" customHeight="1" spans="1:10">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:10">
+    <row r="36" hidden="1" customHeight="1" spans="1:10">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:10">
+    <row r="37" hidden="1" customHeight="1" spans="1:10">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:10">
+    <row r="38" hidden="1" customHeight="1" spans="1:10">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:10">
+    <row r="39" hidden="1" customHeight="1" spans="1:10">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:10">
+    <row r="40" hidden="1" customHeight="1" spans="1:10">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:10">
+    <row r="41" hidden="1" customHeight="1" spans="1:10">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:10">
+    <row r="42" hidden="1" customHeight="1" spans="1:10">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:10">
+    <row r="43" hidden="1" customHeight="1" spans="1:10">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:10">
+    <row r="44" hidden="1" customHeight="1" spans="1:10">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:10">
+    <row r="45" hidden="1" customHeight="1" spans="1:10">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:10">
+    <row r="46" hidden="1" customHeight="1" spans="1:10">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:10">
+    <row r="47" hidden="1" customHeight="1" spans="1:10">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:10">
+    <row r="48" hidden="1" customHeight="1" spans="1:10">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:10">
+    <row r="49" hidden="1" customHeight="1" spans="1:10">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:10">
+    <row r="50" hidden="1" customHeight="1" spans="1:10">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:10">
+    <row r="51" hidden="1" customHeight="1" spans="1:10">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:10">
+    <row r="52" hidden="1" customHeight="1" spans="1:10">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:10">
+    <row r="53" hidden="1" customHeight="1" spans="1:10">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:10">
+    <row r="54" hidden="1" customHeight="1" spans="1:10">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:10">
+    <row r="55" hidden="1" customHeight="1" spans="1:10">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:10">
+    <row r="56" hidden="1" customHeight="1" spans="1:10">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:10">
+    <row r="57" hidden="1" customHeight="1" spans="1:10">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:10">
+    <row r="58" hidden="1" customHeight="1" spans="1:10">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:10">
+    <row r="59" hidden="1" customHeight="1" spans="1:10">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:10">
+    <row r="60" hidden="1" customHeight="1" spans="1:10">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:10">
+    <row r="61" hidden="1" customHeight="1" spans="1:10">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:10">
+    <row r="62" hidden="1" customHeight="1" spans="1:10">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:10">
+    <row r="63" hidden="1" customHeight="1" spans="1:10">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:10">
+    <row r="64" hidden="1" customHeight="1" spans="1:10">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:10">
+    <row r="65" hidden="1" customHeight="1" spans="1:10">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:10">
+    <row r="66" hidden="1" customHeight="1" spans="1:10">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:10">
+    <row r="67" hidden="1" customHeight="1" spans="1:10">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:10">
+    <row r="68" hidden="1" customHeight="1" spans="1:10">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:10">
+    <row r="69" hidden="1" customHeight="1" spans="1:10">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:10">
+    <row r="70" hidden="1" customHeight="1" spans="1:10">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:10">
+    <row r="71" hidden="1" customHeight="1" spans="1:10">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:10">
+    <row r="72" hidden="1" customHeight="1" spans="1:10">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:10">
+    <row r="73" hidden="1" customHeight="1" spans="1:10">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:10">
+    <row r="74" hidden="1" customHeight="1" spans="1:10">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:10">
+    <row r="75" hidden="1" customHeight="1" spans="1:10">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:10">
+    <row r="76" hidden="1" customHeight="1" spans="1:10">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:10">
+    <row r="77" hidden="1" customHeight="1" spans="1:10">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:10">
+    <row r="78" hidden="1" customHeight="1" spans="1:10">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:10">
+    <row r="79" hidden="1" customHeight="1" spans="1:10">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:10">
+    <row r="80" hidden="1" customHeight="1" spans="1:10">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:10">
+    <row r="81" hidden="1" customHeight="1" spans="1:10">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:10">
+    <row r="82" hidden="1" customHeight="1" spans="1:10">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" ht="14.25" hidden="1" spans="1:10">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:10">
+    <row r="84" hidden="1" customHeight="1" spans="1:10">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:10">
+    <row r="85" hidden="1" customHeight="1" spans="1:10">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:10">
+    <row r="86" hidden="1" customHeight="1" spans="1:10">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:10">
+    <row r="87" hidden="1" customHeight="1" spans="1:10">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:10">
+    <row r="88" hidden="1" customHeight="1" spans="1:10">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:10">
+    <row r="89" hidden="1" customHeight="1" spans="1:10">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:10">
+    <row r="90" hidden="1" customHeight="1" spans="1:10">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:10">
+    <row r="91" hidden="1" customHeight="1" spans="1:10">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:10">
+    <row r="92" hidden="1" customHeight="1" spans="1:10">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:10">
+    <row r="93" hidden="1" customHeight="1" spans="1:10">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:10">
+    <row r="94" hidden="1" customHeight="1" spans="1:10">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:10">
+    <row r="95" hidden="1" customHeight="1" spans="1:10">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:10">
+    <row r="96" hidden="1" customHeight="1" spans="1:10">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:10">
+    <row r="97" hidden="1" customHeight="1" spans="1:10">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:10">
+    <row r="98" hidden="1" customHeight="1" spans="1:10">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:10">
+    <row r="99" hidden="1" customHeight="1" spans="1:10">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:10">
+    <row r="100" hidden="1" customHeight="1" spans="1:10">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:10">
+    <row r="101" hidden="1" customHeight="1" spans="1:10">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:10">
+    <row r="102" hidden="1" customHeight="1" spans="1:10">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:10">
+    <row r="103" hidden="1" customHeight="1" spans="1:10">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:10">
+    <row r="104" hidden="1" customHeight="1" spans="1:10">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:10">
+    <row r="105" hidden="1" customHeight="1" spans="1:10">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:10">
+    <row r="106" hidden="1" customHeight="1" spans="1:10">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:10">
+    <row r="107" hidden="1" customHeight="1" spans="1:10">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:10">
+    <row r="108" hidden="1" customHeight="1" spans="1:10">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:10">
+    <row r="109" hidden="1" customHeight="1" spans="1:10">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:10">
+    <row r="110" hidden="1" customHeight="1" spans="1:10">
       <c r="A110" s="2">
         <v>106</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:10">
+    <row r="111" hidden="1" customHeight="1" spans="1:10">
       <c r="A111" s="2">
         <v>107</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:10">
+    <row r="112" hidden="1" customHeight="1" spans="1:10">
       <c r="A112" s="2">
         <v>108</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:10">
+    <row r="113" hidden="1" customHeight="1" spans="1:10">
       <c r="A113" s="2">
         <v>109</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:10">
+    <row r="114" hidden="1" customHeight="1" spans="1:10">
       <c r="A114" s="2">
         <v>110</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:10">
+    <row r="115" hidden="1" customHeight="1" spans="1:10">
       <c r="A115" s="2">
         <v>111</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:10">
+    <row r="116" hidden="1" customHeight="1" spans="1:10">
       <c r="A116" s="2">
         <v>112</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:10">
+    <row r="117" hidden="1" customHeight="1" spans="1:10">
       <c r="A117" s="2">
         <v>113</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:10">
+    <row r="118" hidden="1" customHeight="1" spans="1:10">
       <c r="A118" s="2">
         <v>114</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:10">
+    <row r="119" hidden="1" customHeight="1" spans="1:10">
       <c r="A119" s="2">
         <v>115</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:10">
+    <row r="120" hidden="1" customHeight="1" spans="1:10">
       <c r="A120" s="2">
         <v>116</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:10">
+    <row r="121" hidden="1" customHeight="1" spans="1:10">
       <c r="A121" s="2">
         <v>117</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:10">
+    <row r="122" hidden="1" customHeight="1" spans="1:10">
       <c r="A122" s="2">
         <v>118</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:10">
+    <row r="123" hidden="1" customHeight="1" spans="1:10">
       <c r="A123" s="2">
         <v>119</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:10">
+    <row r="124" hidden="1" customHeight="1" spans="1:10">
       <c r="A124" s="2">
         <v>120</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:10">
+    <row r="125" hidden="1" customHeight="1" spans="1:10">
       <c r="A125" s="2">
         <v>121</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:10">
+    <row r="126" hidden="1" customHeight="1" spans="1:10">
       <c r="A126" s="2">
         <v>122</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:10">
+    <row r="127" hidden="1" customHeight="1" spans="1:10">
       <c r="A127" s="2">
         <v>123</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:10">
+    <row r="128" hidden="1" customHeight="1" spans="1:10">
       <c r="A128" s="2">
         <v>124</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:10">
+    <row r="129" hidden="1" customHeight="1" spans="1:10">
       <c r="A129" s="2">
         <v>125</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:10">
+    <row r="130" hidden="1" customHeight="1" spans="1:10">
       <c r="A130" s="2">
         <v>126</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:10">
+    <row r="131" hidden="1" customHeight="1" spans="1:10">
       <c r="A131" s="2">
         <v>127</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:10">
+    <row r="132" hidden="1" customHeight="1" spans="1:10">
       <c r="A132" s="2">
         <v>128</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:10">
+    <row r="133" hidden="1" customHeight="1" spans="1:10">
       <c r="A133" s="2">
         <v>129</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:10">
+    <row r="134" hidden="1" customHeight="1" spans="1:10">
       <c r="A134" s="2">
         <v>130</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:10">
+    <row r="135" hidden="1" customHeight="1" spans="1:10">
       <c r="A135" s="2">
         <v>131</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:10">
+    <row r="136" hidden="1" customHeight="1" spans="1:10">
       <c r="A136" s="2">
         <v>132</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:10">
+    <row r="137" hidden="1" customHeight="1" spans="1:10">
       <c r="A137" s="2">
         <v>133</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:10">
+    <row r="138" hidden="1" customHeight="1" spans="1:10">
       <c r="A138" s="2">
         <v>134</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:10">
+    <row r="139" hidden="1" customHeight="1" spans="1:10">
       <c r="A139" s="2">
         <v>135</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:10">
+    <row r="140" hidden="1" customHeight="1" spans="1:10">
       <c r="A140" s="2">
         <v>136</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:10">
+    <row r="141" hidden="1" customHeight="1" spans="1:10">
       <c r="A141" s="2">
         <v>137</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:10">
+    <row r="142" hidden="1" customHeight="1" spans="1:10">
       <c r="A142" s="2">
         <v>138</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:10">
+    <row r="143" hidden="1" customHeight="1" spans="1:10">
       <c r="A143" s="2">
         <v>139</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:10">
+    <row r="144" hidden="1" customHeight="1" spans="1:10">
       <c r="A144" s="2">
         <v>140</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:10">
+    <row r="145" hidden="1" customHeight="1" spans="1:10">
       <c r="A145" s="2">
         <v>141</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:10">
+    <row r="146" hidden="1" customHeight="1" spans="1:10">
       <c r="A146" s="2">
         <v>142</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:10">
+    <row r="147" hidden="1" customHeight="1" spans="1:10">
       <c r="A147" s="2">
         <v>143</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:10">
+    <row r="148" hidden="1" customHeight="1" spans="1:10">
       <c r="A148" s="2">
         <v>144</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:10">
+    <row r="149" hidden="1" customHeight="1" spans="1:10">
       <c r="A149" s="2">
         <v>145</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:10">
+    <row r="150" hidden="1" customHeight="1" spans="1:10">
       <c r="A150" s="2">
         <v>146</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:10">
+    <row r="151" hidden="1" customHeight="1" spans="1:10">
       <c r="A151" s="2">
         <v>147</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:10">
+    <row r="152" hidden="1" customHeight="1" spans="1:10">
       <c r="A152" s="2">
         <v>148</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:10">
+    <row r="153" hidden="1" customHeight="1" spans="1:10">
       <c r="A153" s="2">
         <v>149</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:10">
+    <row r="154" hidden="1" customHeight="1" spans="1:10">
       <c r="A154" s="2">
         <v>150</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:10">
+    <row r="155" hidden="1" customHeight="1" spans="1:10">
       <c r="A155" s="2">
         <v>151</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:10">
+    <row r="156" hidden="1" customHeight="1" spans="1:10">
       <c r="A156" s="2">
         <v>152</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:10">
+    <row r="157" hidden="1" customHeight="1" spans="1:10">
       <c r="A157" s="2">
         <v>153</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:10">
+    <row r="158" hidden="1" customHeight="1" spans="1:10">
       <c r="A158" s="2">
         <v>154</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:10">
+    <row r="159" hidden="1" customHeight="1" spans="1:10">
       <c r="A159" s="2">
         <v>155</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:10">
+    <row r="160" hidden="1" customHeight="1" spans="1:10">
       <c r="A160" s="2">
         <v>156</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:10">
+    <row r="161" hidden="1" customHeight="1" spans="1:10">
       <c r="A161" s="2">
         <v>157</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:10">
+    <row r="162" hidden="1" customHeight="1" spans="1:10">
       <c r="A162" s="2">
         <v>158</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:10">
+    <row r="163" hidden="1" customHeight="1" spans="1:10">
       <c r="A163" s="2">
         <v>159</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:10">
+    <row r="164" hidden="1" customHeight="1" spans="1:10">
       <c r="A164" s="2">
         <v>160</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:10">
+    <row r="165" hidden="1" customHeight="1" spans="1:10">
       <c r="A165" s="2">
         <v>161</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:10">
+    <row r="166" hidden="1" customHeight="1" spans="1:10">
       <c r="A166" s="2">
         <v>162</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:10">
+    <row r="167" hidden="1" customHeight="1" spans="1:10">
       <c r="A167" s="2">
         <v>163</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:10">
+    <row r="168" hidden="1" customHeight="1" spans="1:10">
       <c r="A168" s="2">
         <v>164</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:10">
+    <row r="169" hidden="1" customHeight="1" spans="1:10">
       <c r="A169" s="2">
         <v>165</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" ht="14.25" hidden="1" spans="1:10">
       <c r="A170" s="2">
         <v>166</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:10">
+    <row r="171" hidden="1" customHeight="1" spans="1:10">
       <c r="A171" s="2">
         <v>167</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:10">
+    <row r="172" hidden="1" customHeight="1" spans="1:10">
       <c r="A172" s="2">
         <v>168</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:10">
+    <row r="173" hidden="1" customHeight="1" spans="1:10">
       <c r="A173" s="2">
         <v>169</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:10">
+    <row r="174" hidden="1" customHeight="1" spans="1:10">
       <c r="A174" s="2">
         <v>170</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:10">
+    <row r="175" hidden="1" customHeight="1" spans="1:10">
       <c r="A175" s="2">
         <v>171</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:10">
+    <row r="176" hidden="1" customHeight="1" spans="1:10">
       <c r="A176" s="2">
         <v>172</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:10">
+    <row r="177" hidden="1" customHeight="1" spans="1:10">
       <c r="A177" s="2">
         <v>173</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:10">
+    <row r="178" hidden="1" customHeight="1" spans="1:10">
       <c r="A178" s="2">
         <v>174</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:10">
+    <row r="179" hidden="1" customHeight="1" spans="1:10">
       <c r="A179" s="2">
         <v>175</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:10">
+    <row r="180" hidden="1" customHeight="1" spans="1:10">
       <c r="A180" s="2">
         <v>176</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:10">
+    <row r="181" hidden="1" customHeight="1" spans="1:10">
       <c r="A181" s="2">
         <v>177</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:10">
+    <row r="182" hidden="1" customHeight="1" spans="1:10">
       <c r="A182" s="2">
         <v>178</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:10">
+    <row r="183" hidden="1" customHeight="1" spans="1:10">
       <c r="A183" s="2">
         <v>179</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:10">
+    <row r="184" hidden="1" customHeight="1" spans="1:10">
       <c r="A184" s="2">
         <v>180</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:10">
+    <row r="185" hidden="1" customHeight="1" spans="1:10">
       <c r="A185" s="2">
         <v>181</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:10">
+    <row r="186" hidden="1" customHeight="1" spans="1:10">
       <c r="A186" s="2">
         <v>182</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:10">
+    <row r="187" hidden="1" customHeight="1" spans="1:10">
       <c r="A187" s="2">
         <v>183</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:10">
+    <row r="188" hidden="1" customHeight="1" spans="1:10">
       <c r="A188" s="2">
         <v>184</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:10">
+    <row r="189" hidden="1" customHeight="1" spans="1:10">
       <c r="A189" s="2">
         <v>185</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:10">
+    <row r="190" hidden="1" customHeight="1" spans="1:10">
       <c r="A190" s="2">
         <v>186</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:10">
+    <row r="191" hidden="1" customHeight="1" spans="1:10">
       <c r="A191" s="2">
         <v>187</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:10">
+    <row r="192" hidden="1" customHeight="1" spans="1:10">
       <c r="A192" s="2">
         <v>188</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:10">
+    <row r="193" hidden="1" customHeight="1" spans="1:10">
       <c r="A193" s="2">
         <v>189</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:10">
+    <row r="194" hidden="1" customHeight="1" spans="1:10">
       <c r="A194" s="2">
         <v>190</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:10">
+    <row r="195" hidden="1" customHeight="1" spans="1:10">
       <c r="A195" s="2">
         <v>191</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:10">
+    <row r="196" hidden="1" customHeight="1" spans="1:10">
       <c r="A196" s="2">
         <v>192</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:10">
+    <row r="197" hidden="1" customHeight="1" spans="1:10">
       <c r="A197" s="2">
         <v>193</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:10">
+    <row r="198" hidden="1" customHeight="1" spans="1:10">
       <c r="A198" s="2">
         <v>194</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:10">
+    <row r="199" hidden="1" customHeight="1" spans="1:10">
       <c r="A199" s="2">
         <v>195</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:10">
+    <row r="200" hidden="1" customHeight="1" spans="1:10">
       <c r="A200" s="2">
         <v>196</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:10">
+    <row r="201" hidden="1" customHeight="1" spans="1:10">
       <c r="A201" s="2">
         <v>197</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:10">
+    <row r="202" hidden="1" customHeight="1" spans="1:10">
       <c r="A202" s="2">
         <v>198</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:10">
+    <row r="203" hidden="1" customHeight="1" spans="1:10">
       <c r="A203" s="2">
         <v>199</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:10">
+    <row r="204" hidden="1" customHeight="1" spans="1:10">
       <c r="A204" s="2">
         <v>200</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" customHeight="1" spans="1:10">
+    <row r="205" hidden="1" customHeight="1" spans="1:10">
       <c r="A205" s="2">
         <v>201</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:10">
+    <row r="206" hidden="1" customHeight="1" spans="1:10">
       <c r="A206" s="2">
         <v>202</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:10">
+    <row r="207" hidden="1" customHeight="1" spans="1:10">
       <c r="A207" s="2">
         <v>203</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:10">
+    <row r="208" hidden="1" customHeight="1" spans="1:10">
       <c r="A208" s="2">
         <v>204</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:10">
+    <row r="209" hidden="1" customHeight="1" spans="1:10">
       <c r="A209" s="2">
         <v>205</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:10">
+    <row r="210" hidden="1" customHeight="1" spans="1:10">
       <c r="A210" s="2">
         <v>206</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="211" customHeight="1" spans="1:10">
+    <row r="211" hidden="1" customHeight="1" spans="1:10">
       <c r="A211" s="2">
         <v>207</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:10">
+    <row r="212" hidden="1" customHeight="1" spans="1:10">
       <c r="A212" s="2">
         <v>208</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:10">
+    <row r="213" hidden="1" customHeight="1" spans="1:10">
       <c r="A213" s="2">
         <v>209</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:10">
+    <row r="214" hidden="1" customHeight="1" spans="1:10">
       <c r="A214" s="2">
         <v>210</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:10">
+    <row r="215" hidden="1" customHeight="1" spans="1:10">
       <c r="A215" s="2">
         <v>211</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:10">
+    <row r="216" hidden="1" customHeight="1" spans="1:10">
       <c r="A216" s="2">
         <v>212</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:10">
+    <row r="217" hidden="1" customHeight="1" spans="1:10">
       <c r="A217" s="2">
         <v>213</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:10">
+    <row r="218" hidden="1" customHeight="1" spans="1:10">
       <c r="A218" s="2">
         <v>214</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:10">
+    <row r="219" hidden="1" customHeight="1" spans="1:10">
       <c r="A219" s="2">
         <v>215</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:10">
+    <row r="220" hidden="1" customHeight="1" spans="1:10">
       <c r="A220" s="2">
         <v>216</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:10">
+    <row r="221" hidden="1" customHeight="1" spans="1:10">
       <c r="A221" s="2">
         <v>217</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:10">
+    <row r="222" hidden="1" customHeight="1" spans="1:10">
       <c r="A222" s="2">
         <v>218</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="1:10">
+    <row r="223" hidden="1" customHeight="1" spans="1:10">
       <c r="A223" s="2">
         <v>219</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:10">
+    <row r="224" hidden="1" customHeight="1" spans="1:10">
       <c r="A224" s="2">
         <v>220</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:10">
+    <row r="225" hidden="1" customHeight="1" spans="1:10">
       <c r="A225" s="2">
         <v>221</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:10">
+    <row r="226" hidden="1" customHeight="1" spans="1:10">
       <c r="A226" s="2">
         <v>222</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:10">
+    <row r="227" hidden="1" customHeight="1" spans="1:10">
       <c r="A227" s="2">
         <v>223</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:10">
+    <row r="228" hidden="1" customHeight="1" spans="1:10">
       <c r="A228" s="2">
         <v>224</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:10">
+    <row r="229" hidden="1" customHeight="1" spans="1:10">
       <c r="A229" s="2">
         <v>225</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:10">
+    <row r="230" hidden="1" customHeight="1" spans="1:10">
       <c r="A230" s="2">
         <v>226</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:10">
+    <row r="231" hidden="1" customHeight="1" spans="1:10">
       <c r="A231" s="2">
         <v>227</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:10">
+    <row r="232" hidden="1" customHeight="1" spans="1:10">
       <c r="A232" s="2">
         <v>228</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:10">
+    <row r="233" hidden="1" customHeight="1" spans="1:10">
       <c r="A233" s="2">
         <v>229</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:10">
+    <row r="234" hidden="1" customHeight="1" spans="1:10">
       <c r="A234" s="2">
         <v>230</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:10">
+    <row r="235" hidden="1" customHeight="1" spans="1:10">
       <c r="A235" s="2">
         <v>231</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:10">
+    <row r="236" hidden="1" customHeight="1" spans="1:10">
       <c r="A236" s="2">
         <v>232</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:10">
+    <row r="237" hidden="1" customHeight="1" spans="1:10">
       <c r="A237" s="2">
         <v>233</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:10">
+    <row r="238" hidden="1" customHeight="1" spans="1:10">
       <c r="A238" s="2">
         <v>234</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:10">
+    <row r="239" hidden="1" customHeight="1" spans="1:10">
       <c r="A239" s="2">
         <v>235</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:10">
+    <row r="240" hidden="1" customHeight="1" spans="1:10">
       <c r="A240" s="2">
         <v>236</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:10">
+    <row r="241" hidden="1" customHeight="1" spans="1:10">
       <c r="A241" s="2">
         <v>237</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:10">
+    <row r="242" hidden="1" customHeight="1" spans="1:10">
       <c r="A242" s="2">
         <v>238</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:10">
+    <row r="243" hidden="1" customHeight="1" spans="1:10">
       <c r="A243" s="2">
         <v>239</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:10">
+    <row r="244" hidden="1" customHeight="1" spans="1:10">
       <c r="A244" s="2">
         <v>240</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:10">
+    <row r="245" hidden="1" customHeight="1" spans="1:10">
       <c r="A245" s="2">
         <v>241</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:10">
+    <row r="246" hidden="1" customHeight="1" spans="1:10">
       <c r="A246" s="2">
         <v>242</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:10">
+    <row r="247" hidden="1" customHeight="1" spans="1:10">
       <c r="A247" s="2">
         <v>243</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:10">
+    <row r="248" hidden="1" customHeight="1" spans="1:10">
       <c r="A248" s="2">
         <v>244</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:10">
+    <row r="249" hidden="1" customHeight="1" spans="1:10">
       <c r="A249" s="2">
         <v>245</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:10">
+    <row r="250" hidden="1" customHeight="1" spans="1:10">
       <c r="A250" s="2">
         <v>246</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:10">
+    <row r="251" hidden="1" customHeight="1" spans="1:10">
       <c r="A251" s="2">
         <v>247</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:10">
+    <row r="252" hidden="1" customHeight="1" spans="1:10">
       <c r="A252" s="2">
         <v>248</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:10">
+    <row r="253" hidden="1" customHeight="1" spans="1:10">
       <c r="A253" s="2">
         <v>249</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:10">
+    <row r="254" hidden="1" customHeight="1" spans="1:10">
       <c r="A254" s="2">
         <v>250</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:10">
+    <row r="255" hidden="1" customHeight="1" spans="1:10">
       <c r="A255" s="2">
         <v>251</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:10">
+    <row r="256" hidden="1" customHeight="1" spans="1:10">
       <c r="A256" s="2">
         <v>252</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:10">
+    <row r="257" hidden="1" customHeight="1" spans="1:10">
       <c r="A257" s="2">
         <v>253</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:10">
+    <row r="258" hidden="1" customHeight="1" spans="1:10">
       <c r="A258" s="2">
         <v>254</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:10">
+    <row r="259" hidden="1" customHeight="1" spans="1:10">
       <c r="A259" s="2">
         <v>255</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:10">
+    <row r="260" hidden="1" customHeight="1" spans="1:10">
       <c r="A260" s="2">
         <v>256</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:10">
+    <row r="261" hidden="1" customHeight="1" spans="1:10">
       <c r="A261" s="2">
         <v>257</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:10">
+    <row r="262" hidden="1" customHeight="1" spans="1:10">
       <c r="A262" s="2">
         <v>258</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:10">
+    <row r="263" hidden="1" customHeight="1" spans="1:10">
       <c r="A263" s="2">
         <v>259</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:10">
+    <row r="264" hidden="1" customHeight="1" spans="1:10">
       <c r="A264" s="2">
         <v>260</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:10">
+    <row r="265" hidden="1" customHeight="1" spans="1:10">
       <c r="A265" s="2">
         <v>261</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:10">
+    <row r="266" hidden="1" customHeight="1" spans="1:10">
       <c r="A266" s="2">
         <v>262</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:10">
+    <row r="267" hidden="1" customHeight="1" spans="1:10">
       <c r="A267" s="2">
         <v>263</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:10">
+    <row r="268" hidden="1" customHeight="1" spans="1:10">
       <c r="A268" s="2">
         <v>264</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:10">
+    <row r="269" hidden="1" customHeight="1" spans="1:10">
       <c r="A269" s="2">
         <v>265</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:10">
+    <row r="270" hidden="1" customHeight="1" spans="1:10">
       <c r="A270" s="2">
         <v>266</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:10">
+    <row r="271" hidden="1" customHeight="1" spans="1:10">
       <c r="A271" s="2">
         <v>267</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:10">
+    <row r="286" hidden="1" customHeight="1" spans="1:10">
       <c r="A286" s="2">
         <v>282</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:10">
+    <row r="287" hidden="1" customHeight="1" spans="1:10">
       <c r="A287" s="2">
         <v>283</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:10">
+    <row r="288" hidden="1" customHeight="1" spans="1:10">
       <c r="A288" s="2">
         <v>284</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:10">
+    <row r="289" hidden="1" customHeight="1" spans="1:10">
       <c r="A289" s="2">
         <v>285</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:10">
+    <row r="290" hidden="1" customHeight="1" spans="1:10">
       <c r="A290" s="2">
         <v>286</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:10">
+    <row r="291" hidden="1" customHeight="1" spans="1:10">
       <c r="A291" s="2">
         <v>287</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:10">
+    <row r="292" hidden="1" customHeight="1" spans="1:10">
       <c r="A292" s="2">
         <v>288</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:10">
+    <row r="293" hidden="1" customHeight="1" spans="1:10">
       <c r="A293" s="2">
         <v>289</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="294" customHeight="1" spans="1:10">
+    <row r="294" hidden="1" customHeight="1" spans="1:10">
       <c r="A294" s="2">
         <v>290</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="295" customHeight="1" spans="1:10">
+    <row r="295" hidden="1" customHeight="1" spans="1:10">
       <c r="A295" s="2">
         <v>291</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="296" customHeight="1" spans="1:10">
+    <row r="296" hidden="1" customHeight="1" spans="1:10">
       <c r="A296" s="2">
         <v>292</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="297" customHeight="1" spans="1:10">
+    <row r="297" hidden="1" customHeight="1" spans="1:10">
       <c r="A297" s="2">
         <v>293</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="298" customHeight="1" spans="1:10">
+    <row r="298" hidden="1" customHeight="1" spans="1:10">
       <c r="A298" s="2">
         <v>294</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="299" customHeight="1" spans="1:10">
+    <row r="299" hidden="1" customHeight="1" spans="1:10">
       <c r="A299" s="2">
         <v>295</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="300" customHeight="1" spans="1:10">
+    <row r="300" hidden="1" customHeight="1" spans="1:10">
       <c r="A300" s="2">
         <v>296</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="301" customHeight="1" spans="1:10">
+    <row r="301" hidden="1" customHeight="1" spans="1:10">
       <c r="A301" s="2">
         <v>297</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="302" customHeight="1" spans="1:10">
+    <row r="302" hidden="1" customHeight="1" spans="1:10">
       <c r="A302" s="2">
         <v>298</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="303" customHeight="1" spans="1:10">
+    <row r="303" hidden="1" customHeight="1" spans="1:10">
       <c r="A303" s="2">
         <v>299</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="1:10">
+    <row r="304" hidden="1" customHeight="1" spans="1:10">
       <c r="A304" s="2">
         <v>300</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="305" customHeight="1" spans="1:10">
+    <row r="305" hidden="1" customHeight="1" spans="1:10">
       <c r="A305" s="2">
         <v>301</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="306" customHeight="1" spans="1:10">
+    <row r="306" hidden="1" customHeight="1" spans="1:10">
       <c r="A306" s="2">
         <v>302</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="307" customHeight="1" spans="1:10">
+    <row r="307" hidden="1" customHeight="1" spans="1:10">
       <c r="A307" s="2">
         <v>303</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="308" customHeight="1" spans="1:10">
+    <row r="308" hidden="1" customHeight="1" spans="1:10">
       <c r="A308" s="2">
         <v>304</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="1:10">
+    <row r="309" hidden="1" customHeight="1" spans="1:10">
       <c r="A309" s="2">
         <v>305</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="310" customHeight="1" spans="1:10">
+    <row r="310" hidden="1" customHeight="1" spans="1:10">
       <c r="A310" s="2">
         <v>306</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="311" customHeight="1" spans="1:10">
+    <row r="311" hidden="1" customHeight="1" spans="1:10">
       <c r="A311" s="2">
         <v>307</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="312" customHeight="1" spans="1:10">
+    <row r="312" hidden="1" customHeight="1" spans="1:10">
       <c r="A312" s="2">
         <v>308</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="313" customHeight="1" spans="1:10">
+    <row r="313" hidden="1" customHeight="1" spans="1:10">
       <c r="A313" s="2">
         <v>309</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="314" customHeight="1" spans="1:10">
+    <row r="314" hidden="1" customHeight="1" spans="1:10">
       <c r="A314" s="2">
         <v>310</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="315" customHeight="1" spans="1:10">
+    <row r="315" hidden="1" customHeight="1" spans="1:10">
       <c r="A315" s="2">
         <v>311</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="316" customHeight="1" spans="1:10">
+    <row r="316" hidden="1" customHeight="1" spans="1:10">
       <c r="A316" s="2">
         <v>312</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="1:10">
+    <row r="317" hidden="1" customHeight="1" spans="1:10">
       <c r="A317" s="2">
         <v>313</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="318" customHeight="1" spans="1:10">
+    <row r="318" hidden="1" customHeight="1" spans="1:10">
       <c r="A318" s="2">
         <v>314</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="319" customHeight="1" spans="1:10">
+    <row r="319" hidden="1" customHeight="1" spans="1:10">
       <c r="A319" s="2">
         <v>315</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="320" customHeight="1" spans="1:10">
+    <row r="320" hidden="1" customHeight="1" spans="1:10">
       <c r="A320" s="2">
         <v>316</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="321" customHeight="1" spans="1:10">
+    <row r="321" hidden="1" customHeight="1" spans="1:10">
       <c r="A321" s="2">
         <v>317</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="322" customHeight="1" spans="1:10">
+    <row r="322" hidden="1" customHeight="1" spans="1:10">
       <c r="A322" s="2">
         <v>318</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="323" customHeight="1" spans="1:10">
+    <row r="323" hidden="1" customHeight="1" spans="1:10">
       <c r="A323" s="2">
         <v>319</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="324" customHeight="1" spans="1:10">
+    <row r="324" hidden="1" customHeight="1" spans="1:10">
       <c r="A324" s="2">
         <v>320</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="325" customHeight="1" spans="1:10">
+    <row r="325" hidden="1" customHeight="1" spans="1:10">
       <c r="A325" s="2">
         <v>321</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="326" customHeight="1" spans="1:10">
+    <row r="326" hidden="1" customHeight="1" spans="1:10">
       <c r="A326" s="2">
         <v>322</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="327" customHeight="1" spans="1:10">
+    <row r="327" hidden="1" customHeight="1" spans="1:10">
       <c r="A327" s="2">
         <v>323</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="328" customHeight="1" spans="1:10">
+    <row r="328" hidden="1" customHeight="1" spans="1:10">
       <c r="A328" s="2">
         <v>324</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="329" customHeight="1" spans="1:10">
+    <row r="329" hidden="1" customHeight="1" spans="1:10">
       <c r="A329" s="2">
         <v>325</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="330" customHeight="1" spans="1:10">
+    <row r="330" hidden="1" customHeight="1" spans="1:10">
       <c r="A330" s="2">
         <v>326</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="331" customHeight="1" spans="1:10">
+    <row r="331" hidden="1" customHeight="1" spans="1:10">
       <c r="A331" s="2">
         <v>327</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="332" customHeight="1" spans="1:10">
+    <row r="332" hidden="1" customHeight="1" spans="1:10">
       <c r="A332" s="2">
         <v>328</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="333" customHeight="1" spans="1:10">
+    <row r="333" hidden="1" customHeight="1" spans="1:10">
       <c r="A333" s="2">
         <v>329</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="334" customHeight="1" spans="1:10">
+    <row r="334" hidden="1" customHeight="1" spans="1:10">
       <c r="A334" s="2">
         <v>330</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="335" customHeight="1" spans="1:10">
+    <row r="335" hidden="1" customHeight="1" spans="1:10">
       <c r="A335" s="2">
         <v>331</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="336" customHeight="1" spans="1:10">
+    <row r="336" hidden="1" customHeight="1" spans="1:10">
       <c r="A336" s="2">
         <v>332</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="337" customHeight="1" spans="1:10">
+    <row r="337" hidden="1" customHeight="1" spans="1:10">
       <c r="A337" s="2">
         <v>333</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" customHeight="1" spans="1:10">
+    <row r="338" hidden="1" customHeight="1" spans="1:10">
       <c r="A338" s="2">
         <v>334</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="339" customHeight="1" spans="1:10">
+    <row r="339" hidden="1" customHeight="1" spans="1:10">
       <c r="A339" s="2">
         <v>335</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="340" customHeight="1" spans="1:10">
+    <row r="340" hidden="1" customHeight="1" spans="1:10">
       <c r="A340" s="2">
         <v>336</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="341" customHeight="1" spans="1:10">
+    <row r="341" hidden="1" customHeight="1" spans="1:10">
       <c r="A341" s="2">
         <v>337</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="342" customHeight="1" spans="1:10">
+    <row r="342" hidden="1" customHeight="1" spans="1:10">
       <c r="A342" s="2">
         <v>338</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="343" customHeight="1" spans="1:10">
+    <row r="343" hidden="1" customHeight="1" spans="1:10">
       <c r="A343" s="2">
         <v>339</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="344" customHeight="1" spans="1:10">
+    <row r="344" hidden="1" customHeight="1" spans="1:10">
       <c r="A344" s="2">
         <v>340</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="345" customHeight="1" spans="1:10">
+    <row r="345" hidden="1" customHeight="1" spans="1:10">
       <c r="A345" s="2">
         <v>341</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="346" customHeight="1" spans="1:10">
+    <row r="346" hidden="1" customHeight="1" spans="1:10">
       <c r="A346" s="2">
         <v>342</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="347" customHeight="1" spans="1:10">
+    <row r="347" hidden="1" customHeight="1" spans="1:10">
       <c r="A347" s="2">
         <v>343</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="348" customHeight="1" spans="1:10">
+    <row r="348" hidden="1" customHeight="1" spans="1:10">
       <c r="A348" s="2">
         <v>344</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="349" customHeight="1" spans="1:10">
+    <row r="349" hidden="1" customHeight="1" spans="1:10">
       <c r="A349" s="2">
         <v>345</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="350" customHeight="1" spans="1:10">
+    <row r="350" hidden="1" customHeight="1" spans="1:10">
       <c r="A350" s="2">
         <v>346</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="351" customHeight="1" spans="1:10">
+    <row r="351" hidden="1" customHeight="1" spans="1:10">
       <c r="A351" s="2">
         <v>347</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="352" customHeight="1" spans="1:10">
+    <row r="352" hidden="1" customHeight="1" spans="1:10">
       <c r="A352" s="2">
         <v>348</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="353" customHeight="1" spans="1:10">
+    <row r="353" hidden="1" customHeight="1" spans="1:10">
       <c r="A353" s="2">
         <v>349</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="354" customHeight="1" spans="1:10">
+    <row r="354" hidden="1" customHeight="1" spans="1:10">
       <c r="A354" s="2">
         <v>350</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="355" customHeight="1" spans="1:10">
+    <row r="355" hidden="1" customHeight="1" spans="1:10">
       <c r="A355" s="2">
         <v>351</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="356" customHeight="1" spans="1:10">
+    <row r="356" hidden="1" customHeight="1" spans="1:10">
       <c r="A356" s="2">
         <v>352</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" customHeight="1" spans="1:10">
+    <row r="357" hidden="1" customHeight="1" spans="1:10">
       <c r="A357" s="2">
         <v>353</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="358" customHeight="1" spans="1:10">
+    <row r="358" hidden="1" customHeight="1" spans="1:10">
       <c r="A358" s="2">
         <v>354</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="359" customHeight="1" spans="1:10">
+    <row r="359" hidden="1" customHeight="1" spans="1:10">
       <c r="A359" s="2">
         <v>355</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="360" customHeight="1" spans="1:10">
+    <row r="360" hidden="1" customHeight="1" spans="1:10">
       <c r="A360" s="2">
         <v>356</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="361" customHeight="1" spans="1:10">
+    <row r="361" hidden="1" customHeight="1" spans="1:10">
       <c r="A361" s="2">
         <v>357</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="362" customHeight="1" spans="1:10">
+    <row r="362" hidden="1" customHeight="1" spans="1:10">
       <c r="A362" s="2">
         <v>358</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="363" customHeight="1" spans="1:10">
+    <row r="363" hidden="1" customHeight="1" spans="1:10">
       <c r="A363" s="2">
         <v>359</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="364" customHeight="1" spans="1:10">
+    <row r="364" hidden="1" customHeight="1" spans="1:10">
       <c r="A364" s="2">
         <v>360</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="365" customHeight="1" spans="1:10">
+    <row r="365" hidden="1" customHeight="1" spans="1:10">
       <c r="A365" s="2">
         <v>361</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="366" customHeight="1" spans="1:10">
+    <row r="366" hidden="1" customHeight="1" spans="1:10">
       <c r="A366" s="2">
         <v>362</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="367" customHeight="1" spans="1:10">
+    <row r="367" hidden="1" customHeight="1" spans="1:10">
       <c r="A367" s="2">
         <v>363</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="368" customHeight="1" spans="1:10">
+    <row r="368" hidden="1" customHeight="1" spans="1:10">
       <c r="A368" s="2">
         <v>364</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="369" customHeight="1" spans="1:10">
+    <row r="369" hidden="1" customHeight="1" spans="1:10">
       <c r="A369" s="2">
         <v>365</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="370" customHeight="1" spans="1:10">
+    <row r="370" hidden="1" customHeight="1" spans="1:10">
       <c r="A370" s="2">
         <v>366</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="371" customHeight="1" spans="1:10">
+    <row r="371" hidden="1" customHeight="1" spans="1:10">
       <c r="A371" s="2">
         <v>367</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="372" customHeight="1" spans="1:10">
+    <row r="372" hidden="1" customHeight="1" spans="1:10">
       <c r="A372" s="2">
         <v>368</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="373" customHeight="1" spans="1:10">
+    <row r="373" hidden="1" customHeight="1" spans="1:10">
       <c r="A373" s="2">
         <v>369</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="374" customHeight="1" spans="1:10">
+    <row r="374" hidden="1" customHeight="1" spans="1:10">
       <c r="A374" s="2">
         <v>370</v>
       </c>
@@ -12691,6 +12691,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:J374">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="11"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
